--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -61,7 +61,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -523,7 +523,7 @@
     <t>bandhati 1</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -583,7 +583,7 @@
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 2</t>
+    <t>nikkhipati 3</t>
   </si>
   <si>
     <t>bhajati 1</t>
@@ -733,7 +733,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>jhāyati 1</t>
+    <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati</t>
@@ -1357,7 +1357,7 @@
     <t>dhītar</t>
   </si>
   <si>
-    <t>samādāya 1</t>
+    <t>samādāya 2</t>
   </si>
   <si>
     <t>āgamma 1</t>
@@ -1369,7 +1369,7 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
-    <t>ādāya 3</t>
+    <t>ādāya 4</t>
   </si>
   <si>
     <t>upasampajja</t>
@@ -1495,7 +1495,7 @@
     <t>sikkhāpada</t>
   </si>
   <si>
-    <t>bhaya 2</t>
+    <t>bhaya 3</t>
   </si>
   <si>
     <t>rūpa 3</t>
@@ -1618,7 +1618,7 @@
     <t>dāna</t>
   </si>
   <si>
-    <t>āsana</t>
+    <t>āsana 1</t>
   </si>
   <si>
     <t>mūla 1</t>
@@ -1744,7 +1744,7 @@
     <t>upasaṅkamituṃ</t>
   </si>
   <si>
-    <t>carituṃ 1</t>
+    <t>carituṃ 2</t>
   </si>
   <si>
     <t>āyu 2</t>
@@ -1828,7 +1828,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -1837,7 +1837,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -1948,7 +1948,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -2473,7 +2473,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>
@@ -3373,7 +3373,7 @@
     <t>alms; gift; giving; offering; charity</t>
   </si>
   <si>
-    <t>a seat</t>
+    <t>seat; chair; lit. sitting</t>
   </si>
   <si>
     <t>(of a tree) root; base; foot</t>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1213">
   <si>
     <t>Pāli1</t>
   </si>
@@ -49,7 +49,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -64,7 +64,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -91,7 +91,7 @@
     <t>vasa 2</t>
   </si>
   <si>
-    <t>vaccha</t>
+    <t>vaccha 1</t>
   </si>
   <si>
     <t>puggala</t>
@@ -100,7 +100,7 @@
     <t>āsaya 2</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -109,7 +109,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>antarāya</t>
@@ -148,7 +148,7 @@
     <t>sāriputta</t>
   </si>
   <si>
-    <t>pañha</t>
+    <t>pañha 2</t>
   </si>
   <si>
     <t>ābādha</t>
@@ -157,7 +157,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>puthujjana</t>
@@ -178,7 +178,7 @@
     <t>pāda 1</t>
   </si>
   <si>
-    <t>parikkhāra</t>
+    <t>parikkhāra 1</t>
   </si>
   <si>
     <t>patha 2</t>
@@ -187,7 +187,7 @@
     <t>ānanda 2</t>
   </si>
   <si>
-    <t>ānisaṃsa</t>
+    <t>ānisaṃsa 1</t>
   </si>
   <si>
     <t>vāta 1</t>
@@ -253,10 +253,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -268,7 +268,7 @@
     <t>samatha 1</t>
   </si>
   <si>
-    <t>pallaṅka</t>
+    <t>pallaṅka 2</t>
   </si>
   <si>
     <t>anālaya 1</t>
@@ -331,7 +331,7 @@
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>amanasikāra</t>
+    <t>amanasikāra 1</t>
   </si>
   <si>
     <t>uddesa 1</t>
@@ -388,13 +388,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -427,7 +427,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -466,19 +466,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -490,7 +490,7 @@
     <t>kosalā</t>
   </si>
   <si>
-    <t>pātimokkha</t>
+    <t>pātimokkha 2</t>
   </si>
   <si>
     <t>punabbhava</t>
@@ -502,7 +502,7 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>bhaṇati</t>
+    <t>bhaṇati 1</t>
   </si>
   <si>
     <t>vattati 1</t>
@@ -547,7 +547,7 @@
     <t>icchati 1</t>
   </si>
   <si>
-    <t>rakkhati 1</t>
+    <t>rakkhati 2</t>
   </si>
   <si>
     <t>upasaṅkamati</t>
@@ -556,7 +556,7 @@
     <t>bhāsati 1</t>
   </si>
   <si>
-    <t>yācati</t>
+    <t>yācati 1</t>
   </si>
   <si>
     <t>harati 2</t>
@@ -565,7 +565,7 @@
     <t>paṭilabhati</t>
   </si>
   <si>
-    <t>gaṇhati</t>
+    <t>gaṇhati 1</t>
   </si>
   <si>
     <t>passati 2</t>
@@ -574,7 +574,7 @@
     <t>jahati 1</t>
   </si>
   <si>
-    <t>sikkhati</t>
+    <t>sikkhati 2</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
@@ -613,7 +613,7 @@
     <t>gacchati 1</t>
   </si>
   <si>
-    <t>padahati</t>
+    <t>padahati 1</t>
   </si>
   <si>
     <t>vāyamati</t>
@@ -628,7 +628,7 @@
     <t>pavisati</t>
   </si>
   <si>
-    <t>viharati</t>
+    <t>viharati 1</t>
   </si>
   <si>
     <t>vaḍḍhati</t>
@@ -655,10 +655,10 @@
     <t>vedeti 1</t>
   </si>
   <si>
-    <t>dhāreti 2</t>
-  </si>
-  <si>
-    <t>deti</t>
+    <t>dhāreti 3</t>
+  </si>
+  <si>
+    <t>deti 1</t>
   </si>
   <si>
     <t>ehi</t>
@@ -670,7 +670,7 @@
     <t>paggaṇhāti 3</t>
   </si>
   <si>
-    <t>suṇāti</t>
+    <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
@@ -694,7 +694,7 @@
     <t>paggaṇhāti 2</t>
   </si>
   <si>
-    <t>jānāti</t>
+    <t>jānāti 1</t>
   </si>
   <si>
     <t>pāpuṇāti 1</t>
@@ -724,7 +724,7 @@
     <t>maññati 1</t>
   </si>
   <si>
-    <t>nibbindati</t>
+    <t>nibbindati 1</t>
   </si>
   <si>
     <t>anuyuñjati 2</t>
@@ -736,7 +736,7 @@
     <t>jhāyati 2</t>
   </si>
   <si>
-    <t>chindati</t>
+    <t>chindati 1</t>
   </si>
   <si>
     <t>āpajjati 5</t>
@@ -751,10 +751,10 @@
     <t>atthi 2</t>
   </si>
   <si>
-    <t>amha</t>
-  </si>
-  <si>
-    <t>asi 2</t>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
   </si>
   <si>
     <t>attha 12</t>
@@ -775,7 +775,7 @@
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu</t>
+    <t>hotu 1</t>
   </si>
   <si>
     <t>hoti 1</t>
@@ -811,7 +811,7 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>muni</t>
+    <t>muni 1</t>
   </si>
   <si>
     <t>gahapati</t>
@@ -826,10 +826,10 @@
     <t>isi</t>
   </si>
   <si>
-    <t>añjali</t>
-  </si>
-  <si>
-    <t>samādhi</t>
+    <t>añjali 1</t>
+  </si>
+  <si>
+    <t>samādhi 1</t>
   </si>
   <si>
     <t>gāmaṇi</t>
@@ -841,7 +841,7 @@
     <t>ñāti</t>
   </si>
   <si>
-    <t>karoti</t>
+    <t>karoti 1</t>
   </si>
   <si>
     <t>karohi</t>
@@ -850,7 +850,7 @@
     <t>sakkaroti</t>
   </si>
   <si>
-    <t>abhisaṅkharoti</t>
+    <t>abhisaṅkharoti 2</t>
   </si>
   <si>
     <t>ajjhabhāsi</t>
@@ -913,22 +913,22 @@
     <t>no 7</t>
   </si>
   <si>
-    <t>amhākaṃ 1</t>
+    <t>amhākaṃ 3</t>
   </si>
   <si>
     <t>ahaṃ</t>
   </si>
   <si>
-    <t>maṃ</t>
+    <t>maṃ 1</t>
   </si>
   <si>
     <t>me 3</t>
   </si>
   <si>
-    <t>sobhati</t>
-  </si>
-  <si>
-    <t>neti 2</t>
+    <t>sobhati 2</t>
+  </si>
+  <si>
+    <t>neti 1</t>
   </si>
   <si>
     <t>no 3</t>
@@ -994,7 +994,7 @@
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>tvaṃ</t>
+    <t>tvaṃ 1</t>
   </si>
   <si>
     <t>te 6</t>
@@ -1012,7 +1012,7 @@
     <t>vo 4</t>
   </si>
   <si>
-    <t>nābhijānāti</t>
+    <t>nābhijānāti 1</t>
   </si>
   <si>
     <t>ottappī</t>
@@ -1024,6 +1024,9 @@
     <t>vihārī</t>
   </si>
   <si>
+    <t>dassī 2</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
@@ -1048,9 +1051,6 @@
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>dassī 2</t>
-  </si>
-  <si>
     <t>sukhī 2</t>
   </si>
   <si>
@@ -1087,16 +1087,16 @@
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant</t>
-  </si>
-  <si>
-    <t>satthar</t>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
+    <t>satthar 1</t>
   </si>
   <si>
     <t>bhāsitar</t>
   </si>
   <si>
-    <t>dātar</t>
+    <t>dātar 1</t>
   </si>
   <si>
     <t>pitar</t>
@@ -1138,7 +1138,7 @@
     <t>ajja</t>
   </si>
   <si>
-    <t>pubbe</t>
+    <t>pubbe 1</t>
   </si>
   <si>
     <t>garu 5</t>
@@ -1174,13 +1174,13 @@
     <t>gāha 4</t>
   </si>
   <si>
-    <t>paṭighāta</t>
+    <t>paṭighāta 1</t>
   </si>
   <si>
     <t>nahāyati</t>
   </si>
   <si>
-    <t>passeyya 2</t>
+    <t>passeyya 1</t>
   </si>
   <si>
     <t>jāneyya</t>
@@ -1204,10 +1204,10 @@
     <t>hanati 3</t>
   </si>
   <si>
-    <t>kareyya</t>
-  </si>
-  <si>
-    <t>siyā</t>
+    <t>kareyya 1</t>
+  </si>
+  <si>
+    <t>siyā 2</t>
   </si>
   <si>
     <t>assa 3</t>
@@ -1222,13 +1222,13 @@
     <t>sikkhā 2</t>
   </si>
   <si>
-    <t>gāthā 2</t>
+    <t>gāthā 1</t>
   </si>
   <si>
     <t>jarā</t>
   </si>
   <si>
-    <t>vīmaṃsā</t>
+    <t>vīmaṃsā 1</t>
   </si>
   <si>
     <t>disā 1</t>
@@ -1243,19 +1243,19 @@
     <t>senā</t>
   </si>
   <si>
-    <t>sākhā</t>
+    <t>sākhā 1</t>
   </si>
   <si>
     <t>bāhā 1</t>
   </si>
   <si>
-    <t>desanā 2</t>
+    <t>desanā 3</t>
   </si>
   <si>
     <t>vācā 1</t>
   </si>
   <si>
-    <t>taṇhā</t>
+    <t>taṇhā 1</t>
   </si>
   <si>
     <t>vedanā 1</t>
@@ -1264,7 +1264,7 @@
     <t>jivhā</t>
   </si>
   <si>
-    <t>sālā</t>
+    <t>sālā 1</t>
   </si>
   <si>
     <t>upāsikā</t>
@@ -1303,7 +1303,7 @@
     <t>saddhā 1</t>
   </si>
   <si>
-    <t>vijjā</t>
+    <t>vijjā 1</t>
   </si>
   <si>
     <t>vipassanā</t>
@@ -1315,7 +1315,7 @@
     <t>ovāda</t>
   </si>
   <si>
-    <t>gahetvā 2</t>
+    <t>gahetvā 5</t>
   </si>
   <si>
     <t>acchādetvā</t>
@@ -1336,16 +1336,16 @@
     <t>ābhujitvā</t>
   </si>
   <si>
-    <t>katvāna</t>
-  </si>
-  <si>
-    <t>caritvā</t>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1</t>
   </si>
   <si>
     <t>gahetvā 1</t>
   </si>
   <si>
-    <t>karitvā</t>
+    <t>karitvā 1</t>
   </si>
   <si>
     <t>upasaṅkamitvā</t>
@@ -1372,7 +1372,7 @@
     <t>ādāya 4</t>
   </si>
   <si>
-    <t>upasampajja</t>
+    <t>upasampajja 1</t>
   </si>
   <si>
     <t>vivicca</t>
@@ -1384,16 +1384,16 @@
     <t>nisajja</t>
   </si>
   <si>
-    <t>diṭṭhi</t>
-  </si>
-  <si>
-    <t>sati 1</t>
-  </si>
-  <si>
-    <t>ṭhiti</t>
-  </si>
-  <si>
-    <t>kuṭi</t>
+    <t>diṭṭhi 1</t>
+  </si>
+  <si>
+    <t>sati 2</t>
+  </si>
+  <si>
+    <t>ṭhiti 1</t>
+  </si>
+  <si>
+    <t>kuṭi 1</t>
   </si>
   <si>
     <t>visuddhi 1</t>
@@ -1420,7 +1420,7 @@
     <t>passaddhi</t>
   </si>
   <si>
-    <t>saṅghāṭi</t>
+    <t>saṅghāṭi 1</t>
   </si>
   <si>
     <t>vimutti</t>
@@ -1429,7 +1429,7 @@
     <t>yattha</t>
   </si>
   <si>
-    <t>ettha</t>
+    <t>ettha 1</t>
   </si>
   <si>
     <t>idha 2</t>
@@ -1441,7 +1441,7 @@
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha</t>
+    <t>sabbattha 1</t>
   </si>
   <si>
     <t>tattha 1</t>
@@ -1462,7 +1462,7 @@
     <t>pipāsā</t>
   </si>
   <si>
-    <t>itthī</t>
+    <t>itthī 1</t>
   </si>
   <si>
     <t>nārī</t>
@@ -1477,7 +1477,7 @@
     <t>vesālī</t>
   </si>
   <si>
-    <t>bārāṇasī</t>
+    <t>bārāṇasī 1</t>
   </si>
   <si>
     <t>bhikkhunī</t>
@@ -1531,10 +1531,10 @@
     <t>nāma 5</t>
   </si>
   <si>
-    <t>vīriya</t>
-  </si>
-  <si>
-    <t>vepulla</t>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
   </si>
   <si>
     <t>maraṇa</t>
@@ -1555,19 +1555,19 @@
     <t>arañña</t>
   </si>
   <si>
-    <t>pamāṇa 1</t>
-  </si>
-  <si>
-    <t>upādāna 1</t>
-  </si>
-  <si>
-    <t>sarīra</t>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
   </si>
   <si>
     <t>passa 1</t>
   </si>
   <si>
-    <t>vattha</t>
+    <t>vattha 1</t>
   </si>
   <si>
     <t>puñña 1</t>
@@ -1576,10 +1576,10 @@
     <t>agāra 1</t>
   </si>
   <si>
-    <t>dassanāya</t>
-  </si>
-  <si>
-    <t>itthatta</t>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
   </si>
   <si>
     <t>mūla 2</t>
@@ -1588,7 +1588,7 @@
     <t>domanassa</t>
   </si>
   <si>
-    <t>dukkha 2</t>
+    <t>dukkha 3</t>
   </si>
   <si>
     <t>bhesajja</t>
@@ -1603,7 +1603,7 @@
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>saraṇa 1</t>
+    <t>saraṇa 2</t>
   </si>
   <si>
     <t>vajja 3</t>
@@ -1612,10 +1612,10 @@
     <t>bhojana 2</t>
   </si>
   <si>
-    <t>viññāṇa</t>
-  </si>
-  <si>
-    <t>dāna</t>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>dāna 2</t>
   </si>
   <si>
     <t>āsana 1</t>
@@ -1624,7 +1624,7 @@
     <t>mūla 1</t>
   </si>
   <si>
-    <t>maṃsa</t>
+    <t>maṃsa 1</t>
   </si>
   <si>
     <t>somanassa</t>
@@ -1636,10 +1636,10 @@
     <t>sāsana 1</t>
   </si>
   <si>
-    <t>bhatta</t>
-  </si>
-  <si>
-    <t>pāra</t>
+    <t>bhatta 1</t>
+  </si>
+  <si>
+    <t>pāra 1</t>
   </si>
   <si>
     <t>ātappa</t>
@@ -1669,7 +1669,7 @@
     <t>citta 3</t>
   </si>
   <si>
-    <t>jhāna</t>
+    <t>jhāna 2</t>
   </si>
   <si>
     <t>dukkaṭa 3</t>
@@ -1684,7 +1684,7 @@
     <t>pārājika 3</t>
   </si>
   <si>
-    <t>brahmacariya</t>
+    <t>brahmacariya 1</t>
   </si>
   <si>
     <t>saṃyojana 1</t>
@@ -1708,7 +1708,7 @@
     <t>alaṃ 1</t>
   </si>
   <si>
-    <t>tāva</t>
+    <t>tāva 1</t>
   </si>
   <si>
     <t>api 2</t>
@@ -1717,7 +1717,7 @@
     <t>alaṃ 2</t>
   </si>
   <si>
-    <t>kathaṃ</t>
+    <t>kathaṃ 1</t>
   </si>
   <si>
     <t>alaṃ 3</t>
@@ -1735,7 +1735,7 @@
     <t>samanupassituṃ</t>
   </si>
   <si>
-    <t>kātuṃ</t>
+    <t>kātuṃ 1</t>
   </si>
   <si>
     <t>gantuṃ</t>
@@ -2332,7 +2332,7 @@
     <t>obtains; receives; gets</t>
   </si>
   <si>
-    <t>takes; holds of; grasps</t>
+    <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
     <t>understands; gets; lit. sees</t>
@@ -2341,7 +2341,7 @@
     <t>leaves; abandons; gives up; forsakes</t>
   </si>
   <si>
-    <t>learns; trains; practises</t>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
@@ -2395,7 +2395,7 @@
     <t>enters; goes into</t>
   </si>
   <si>
-    <t>lives; abides; dwells</t>
+    <t>lives (in); dwells (in)</t>
   </si>
   <si>
     <t>grows; increases; multiplies</t>
@@ -2461,9 +2461,6 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>knows; understands; is aware; finds out</t>
-  </si>
-  <si>
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
@@ -2608,7 +2605,7 @@
     <t>family; relative; lit. known</t>
   </si>
   <si>
-    <t>does; makes; acts; performs; builds</t>
+    <t>does; acts; performs</t>
   </si>
   <si>
     <t>do! make! may you preform; you must do</t>
@@ -2617,7 +2614,7 @@
     <t>honours; esteems; respects; lit. makes properly</t>
   </si>
   <si>
-    <t>does; performs; creates; constructs</t>
+    <t>does; performs; lit. constructs</t>
   </si>
   <si>
     <t>addressed; spoke (to)</t>
@@ -2647,7 +2644,7 @@
     <t>livelihood; way of earning a living</t>
   </si>
   <si>
-    <t>one who has thoroughly understood; being enlightened; the Buddha</t>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
   </si>
   <si>
     <t>false teaching; against the teaching</t>
@@ -2689,7 +2686,7 @@
     <t>for me; to me</t>
   </si>
   <si>
-    <t>shines; radiates; looks beautiful</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>leads; carries away; takes away</t>
@@ -2785,6 +2782,9 @@
     <t>(of a state of being) living in; who has</t>
   </si>
   <si>
+    <t>who sees; who knows; who perceives; who understands</t>
+  </si>
+  <si>
     <t>remorseful; regretful; sorry; lit. remembering back negatively</t>
   </si>
   <si>
@@ -2809,10 +2809,7 @@
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>who sees; who knows; who perceives; who understands</t>
-  </si>
-  <si>
-    <t>who is happy; at ease; comfortable</t>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
     <t>fellow monk; spiritual companion</t>
@@ -2965,10 +2962,10 @@
     <t>punishes; flogs; beats</t>
   </si>
   <si>
-    <t>could do; could make</t>
-  </si>
-  <si>
-    <t>could be; may be; might be</t>
+    <t>could do; would do</t>
+  </si>
+  <si>
+    <t>there could be</t>
   </si>
   <si>
     <t>may be; would be; could be</t>
@@ -3058,7 +3055,7 @@
     <t>perception; conception; recognition; third of the five aggregates</t>
   </si>
   <si>
-    <t>faith; confidence; lit. putting heart</t>
+    <t>faith (in); belief (in); trust (in); lit. putting heart</t>
   </si>
   <si>
     <t>knowledge; wisdom; understanding</t>
@@ -3094,18 +3091,15 @@
     <t>having bent; having folded</t>
   </si>
   <si>
-    <t>having done; having made</t>
-  </si>
-  <si>
-    <t>having walked; having wandered; having lived</t>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
   </si>
   <si>
     <t>having taken; having grabbed hold of</t>
   </si>
   <si>
-    <t>having done; having made; having built</t>
-  </si>
-  <si>
     <t>having approached; having gone (to); having drawn near (to)</t>
   </si>
   <si>
@@ -3145,7 +3139,7 @@
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
-    <t>memory; mindfulness; presence; recollection; awareness</t>
+    <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
     <t>stability; constancy; long lasting; persisting; lit. standing</t>
@@ -3205,7 +3199,7 @@
     <t>there; in that place</t>
   </si>
   <si>
-    <t>above; over; upon; on</t>
+    <t>above; overhead</t>
   </si>
   <si>
     <t>in that regard; in that case; regarding that matter</t>
@@ -3304,7 +3298,7 @@
     <t>joy; happiness; gladness</t>
   </si>
   <si>
-    <t>(mental) power; strength</t>
+    <t>(Dhamma) power; strength</t>
   </si>
   <si>
     <t>forest; wood</t>
@@ -3316,7 +3310,7 @@
     <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
   </si>
   <si>
-    <t>body; corpse</t>
+    <t>body</t>
   </si>
   <si>
     <t>side (of the body); flank</t>
@@ -3331,7 +3325,7 @@
     <t>house; a dwelling place</t>
   </si>
   <si>
-    <t>to see; in order to visit; for the purpose of seeing</t>
+    <t>in order to visit; for the purpose of seeing</t>
   </si>
   <si>
     <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
@@ -3358,7 +3352,7 @@
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
   </si>
   <si>
-    <t>protection; help; refuge; a shelter</t>
+    <t>shelter; refuge; help; lit. going to</t>
   </si>
   <si>
     <t>fault; error; mistake; lit. to be avoided</t>
@@ -3370,7 +3364,7 @@
     <t>awareness; consciousness; fifth of the five aggregates; lit. knowing</t>
   </si>
   <si>
-    <t>alms; gift; giving; offering; charity</t>
+    <t>alms; gift</t>
   </si>
   <si>
     <t>seat; chair; lit. sitting</t>
@@ -3424,7 +3418,7 @@
     <t>mind; heart</t>
   </si>
   <si>
-    <t>meditation; contemplation; stage of meditation</t>
+    <t>meditation; stage of meditation; lit. meditating</t>
   </si>
   <si>
     <t>class of vinaya offence; wrong-doing; lit. bad deed</t>
@@ -3490,7 +3484,7 @@
     <t>to see; to regard; to consider</t>
   </si>
   <si>
-    <t>to do; to make</t>
+    <t>to do; to perform</t>
   </si>
   <si>
     <t>to go (to); to travel (to)</t>
@@ -4050,10 +4044,10 @@
         <v>594</v>
       </c>
       <c r="D2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4067,10 +4061,10 @@
         <v>595</v>
       </c>
       <c r="D3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4084,10 +4078,10 @@
         <v>596</v>
       </c>
       <c r="D4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4101,10 +4095,10 @@
         <v>597</v>
       </c>
       <c r="D5" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4118,10 +4112,10 @@
         <v>598</v>
       </c>
       <c r="D6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E6" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4135,10 +4129,10 @@
         <v>599</v>
       </c>
       <c r="D7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E7" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4152,10 +4146,10 @@
         <v>600</v>
       </c>
       <c r="D8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E8" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4169,10 +4163,10 @@
         <v>601</v>
       </c>
       <c r="D9" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4186,10 +4180,10 @@
         <v>602</v>
       </c>
       <c r="D10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4203,10 +4197,10 @@
         <v>603</v>
       </c>
       <c r="D11" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4220,10 +4214,10 @@
         <v>604</v>
       </c>
       <c r="D12" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4237,10 +4231,10 @@
         <v>605</v>
       </c>
       <c r="D13" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E13" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4254,10 +4248,10 @@
         <v>606</v>
       </c>
       <c r="D14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4271,10 +4265,10 @@
         <v>607</v>
       </c>
       <c r="D15" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E15" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4288,10 +4282,10 @@
         <v>608</v>
       </c>
       <c r="D16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E16" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4305,10 +4299,10 @@
         <v>609</v>
       </c>
       <c r="D17" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E17" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4322,10 +4316,10 @@
         <v>610</v>
       </c>
       <c r="D18" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E18" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4339,10 +4333,10 @@
         <v>611</v>
       </c>
       <c r="D19" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E19" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4356,10 +4350,10 @@
         <v>612</v>
       </c>
       <c r="D20" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E20" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4373,10 +4367,10 @@
         <v>613</v>
       </c>
       <c r="D21" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E21" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4390,10 +4384,10 @@
         <v>614</v>
       </c>
       <c r="D22" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E22" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4407,10 +4401,10 @@
         <v>615</v>
       </c>
       <c r="D23" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E23" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4424,10 +4418,10 @@
         <v>616</v>
       </c>
       <c r="D24" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E24" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4441,10 +4435,10 @@
         <v>617</v>
       </c>
       <c r="D25" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E25" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4458,10 +4452,10 @@
         <v>618</v>
       </c>
       <c r="D26" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E26" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4475,10 +4469,10 @@
         <v>619</v>
       </c>
       <c r="D27" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E27" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4492,10 +4486,10 @@
         <v>620</v>
       </c>
       <c r="D28" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E28" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4509,10 +4503,10 @@
         <v>621</v>
       </c>
       <c r="D29" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E29" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4526,10 +4520,10 @@
         <v>622</v>
       </c>
       <c r="D30" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E30" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4543,10 +4537,10 @@
         <v>623</v>
       </c>
       <c r="D31" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E31" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4560,10 +4554,10 @@
         <v>624</v>
       </c>
       <c r="D32" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E32" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4577,10 +4571,10 @@
         <v>625</v>
       </c>
       <c r="D33" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E33" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4594,10 +4588,10 @@
         <v>626</v>
       </c>
       <c r="D34" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E34" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4611,10 +4605,10 @@
         <v>627</v>
       </c>
       <c r="D35" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E35" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4628,10 +4622,10 @@
         <v>628</v>
       </c>
       <c r="D36" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E36" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4645,10 +4639,10 @@
         <v>629</v>
       </c>
       <c r="D37" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E37" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4662,10 +4656,10 @@
         <v>630</v>
       </c>
       <c r="D38" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E38" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4679,10 +4673,10 @@
         <v>631</v>
       </c>
       <c r="D39" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E39" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4696,10 +4690,10 @@
         <v>632</v>
       </c>
       <c r="D40" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E40" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4713,10 +4707,10 @@
         <v>633</v>
       </c>
       <c r="D41" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E41" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4730,10 +4724,10 @@
         <v>634</v>
       </c>
       <c r="D42" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E42" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4747,10 +4741,10 @@
         <v>635</v>
       </c>
       <c r="D43" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E43" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4764,10 +4758,10 @@
         <v>636</v>
       </c>
       <c r="D44" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E44" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4781,10 +4775,10 @@
         <v>637</v>
       </c>
       <c r="D45" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E45" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4798,10 +4792,10 @@
         <v>638</v>
       </c>
       <c r="D46" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E46" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4815,10 +4809,10 @@
         <v>639</v>
       </c>
       <c r="D47" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E47" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4832,10 +4826,10 @@
         <v>640</v>
       </c>
       <c r="D48" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E48" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4849,10 +4843,10 @@
         <v>641</v>
       </c>
       <c r="D49" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E49" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4866,10 +4860,10 @@
         <v>642</v>
       </c>
       <c r="D50" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E50" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4883,10 +4877,10 @@
         <v>643</v>
       </c>
       <c r="D51" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E51" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4900,10 +4894,10 @@
         <v>644</v>
       </c>
       <c r="D52" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E52" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4917,10 +4911,10 @@
         <v>645</v>
       </c>
       <c r="D53" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E53" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4934,10 +4928,10 @@
         <v>646</v>
       </c>
       <c r="D54" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E54" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4951,10 +4945,10 @@
         <v>647</v>
       </c>
       <c r="D55" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E55" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4968,10 +4962,10 @@
         <v>648</v>
       </c>
       <c r="D56" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E56" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4985,10 +4979,10 @@
         <v>649</v>
       </c>
       <c r="D57" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E57" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5002,10 +4996,10 @@
         <v>650</v>
       </c>
       <c r="D58" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E58" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5019,10 +5013,10 @@
         <v>651</v>
       </c>
       <c r="D59" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E59" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5036,10 +5030,10 @@
         <v>652</v>
       </c>
       <c r="D60" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E60" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5053,10 +5047,10 @@
         <v>653</v>
       </c>
       <c r="D61" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E61" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5070,10 +5064,10 @@
         <v>654</v>
       </c>
       <c r="D62" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E62" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5087,10 +5081,10 @@
         <v>655</v>
       </c>
       <c r="D63" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E63" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5104,10 +5098,10 @@
         <v>656</v>
       </c>
       <c r="D64" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E64" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5121,10 +5115,10 @@
         <v>657</v>
       </c>
       <c r="D65" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E65" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5138,10 +5132,10 @@
         <v>658</v>
       </c>
       <c r="D66" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E66" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5155,10 +5149,10 @@
         <v>659</v>
       </c>
       <c r="D67" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E67" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5172,10 +5166,10 @@
         <v>660</v>
       </c>
       <c r="D68" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E68" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5189,10 +5183,10 @@
         <v>661</v>
       </c>
       <c r="D69" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E69" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5206,10 +5200,10 @@
         <v>662</v>
       </c>
       <c r="D70" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E70" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5223,10 +5217,10 @@
         <v>663</v>
       </c>
       <c r="D71" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E71" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5240,10 +5234,10 @@
         <v>664</v>
       </c>
       <c r="D72" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E72" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5257,10 +5251,10 @@
         <v>665</v>
       </c>
       <c r="D73" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E73" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5274,10 +5268,10 @@
         <v>666</v>
       </c>
       <c r="D74" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E74" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5291,10 +5285,10 @@
         <v>667</v>
       </c>
       <c r="D75" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E75" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5308,10 +5302,10 @@
         <v>668</v>
       </c>
       <c r="D76" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E76" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5325,10 +5319,10 @@
         <v>669</v>
       </c>
       <c r="D77" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E77" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5342,10 +5336,10 @@
         <v>670</v>
       </c>
       <c r="D78" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E78" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5359,10 +5353,10 @@
         <v>671</v>
       </c>
       <c r="D79" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E79" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5376,10 +5370,10 @@
         <v>672</v>
       </c>
       <c r="D80" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E80" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5393,10 +5387,10 @@
         <v>673</v>
       </c>
       <c r="D81" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E81" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5410,10 +5404,10 @@
         <v>674</v>
       </c>
       <c r="D82" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E82" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5427,10 +5421,10 @@
         <v>675</v>
       </c>
       <c r="D83" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E83" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5444,10 +5438,10 @@
         <v>676</v>
       </c>
       <c r="D84" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E84" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5461,10 +5455,10 @@
         <v>677</v>
       </c>
       <c r="D85" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E85" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5478,10 +5472,10 @@
         <v>678</v>
       </c>
       <c r="D86" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E86" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5495,10 +5489,10 @@
         <v>679</v>
       </c>
       <c r="D87" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E87" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5512,10 +5506,10 @@
         <v>680</v>
       </c>
       <c r="D88" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E88" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5529,10 +5523,10 @@
         <v>681</v>
       </c>
       <c r="D89" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E89" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5546,10 +5540,10 @@
         <v>682</v>
       </c>
       <c r="D90" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E90" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5563,10 +5557,10 @@
         <v>683</v>
       </c>
       <c r="D91" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E91" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5580,10 +5574,10 @@
         <v>684</v>
       </c>
       <c r="D92" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E92" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5597,10 +5591,10 @@
         <v>685</v>
       </c>
       <c r="D93" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E93" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5614,10 +5608,10 @@
         <v>686</v>
       </c>
       <c r="D94" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E94" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5631,10 +5625,10 @@
         <v>687</v>
       </c>
       <c r="D95" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E95" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5648,10 +5642,10 @@
         <v>688</v>
       </c>
       <c r="D96" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E96" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5665,10 +5659,10 @@
         <v>689</v>
       </c>
       <c r="D97" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E97" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5682,10 +5676,10 @@
         <v>690</v>
       </c>
       <c r="D98" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E98" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5699,10 +5693,10 @@
         <v>691</v>
       </c>
       <c r="D99" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E99" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5716,10 +5710,10 @@
         <v>692</v>
       </c>
       <c r="D100" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E100" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5733,10 +5727,10 @@
         <v>693</v>
       </c>
       <c r="D101" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E101" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5750,10 +5744,10 @@
         <v>694</v>
       </c>
       <c r="D102" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E102" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5767,10 +5761,10 @@
         <v>695</v>
       </c>
       <c r="D103" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E103" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5784,10 +5778,10 @@
         <v>696</v>
       </c>
       <c r="D104" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E104" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5801,10 +5795,10 @@
         <v>697</v>
       </c>
       <c r="D105" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E105" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5818,10 +5812,10 @@
         <v>698</v>
       </c>
       <c r="D106" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E106" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5835,10 +5829,10 @@
         <v>699</v>
       </c>
       <c r="D107" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E107" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5852,10 +5846,10 @@
         <v>700</v>
       </c>
       <c r="D108" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E108" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5869,10 +5863,10 @@
         <v>701</v>
       </c>
       <c r="D109" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E109" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5886,10 +5880,10 @@
         <v>702</v>
       </c>
       <c r="D110" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E110" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5903,10 +5897,10 @@
         <v>703</v>
       </c>
       <c r="D111" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E111" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5920,10 +5914,10 @@
         <v>704</v>
       </c>
       <c r="D112" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E112" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5937,10 +5931,10 @@
         <v>705</v>
       </c>
       <c r="D113" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E113" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5954,10 +5948,10 @@
         <v>706</v>
       </c>
       <c r="D114" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E114" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5971,10 +5965,10 @@
         <v>707</v>
       </c>
       <c r="D115" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E115" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5988,10 +5982,10 @@
         <v>708</v>
       </c>
       <c r="D116" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E116" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -6005,10 +5999,10 @@
         <v>709</v>
       </c>
       <c r="D117" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E117" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -6022,10 +6016,10 @@
         <v>710</v>
       </c>
       <c r="D118" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E118" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6039,10 +6033,10 @@
         <v>711</v>
       </c>
       <c r="D119" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E119" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6056,10 +6050,10 @@
         <v>712</v>
       </c>
       <c r="D120" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E120" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -6073,10 +6067,10 @@
         <v>713</v>
       </c>
       <c r="D121" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E121" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6090,10 +6084,10 @@
         <v>714</v>
       </c>
       <c r="D122" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E122" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6107,10 +6101,10 @@
         <v>715</v>
       </c>
       <c r="D123" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E123" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6124,10 +6118,10 @@
         <v>716</v>
       </c>
       <c r="D124" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E124" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -6141,10 +6135,10 @@
         <v>717</v>
       </c>
       <c r="D125" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E125" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -6158,10 +6152,10 @@
         <v>718</v>
       </c>
       <c r="D126" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E126" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -6175,10 +6169,10 @@
         <v>719</v>
       </c>
       <c r="D127" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E127" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6192,10 +6186,10 @@
         <v>720</v>
       </c>
       <c r="D128" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E128" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6209,10 +6203,10 @@
         <v>721</v>
       </c>
       <c r="D129" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E129" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -6226,10 +6220,10 @@
         <v>722</v>
       </c>
       <c r="D130" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E130" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -6243,10 +6237,10 @@
         <v>723</v>
       </c>
       <c r="D131" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E131" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6260,10 +6254,10 @@
         <v>724</v>
       </c>
       <c r="D132" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E132" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6277,10 +6271,10 @@
         <v>725</v>
       </c>
       <c r="D133" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E133" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6294,10 +6288,10 @@
         <v>726</v>
       </c>
       <c r="D134" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E134" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6311,10 +6305,10 @@
         <v>727</v>
       </c>
       <c r="D135" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E135" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -6328,10 +6322,10 @@
         <v>728</v>
       </c>
       <c r="D136" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E136" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6345,10 +6339,10 @@
         <v>729</v>
       </c>
       <c r="D137" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E137" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6362,10 +6356,10 @@
         <v>730</v>
       </c>
       <c r="D138" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E138" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6379,10 +6373,10 @@
         <v>731</v>
       </c>
       <c r="D139" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E139" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6396,10 +6390,10 @@
         <v>732</v>
       </c>
       <c r="D140" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E140" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6413,10 +6407,10 @@
         <v>733</v>
       </c>
       <c r="D141" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E141" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6430,10 +6424,10 @@
         <v>734</v>
       </c>
       <c r="D142" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E142" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6447,10 +6441,10 @@
         <v>735</v>
       </c>
       <c r="D143" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E143" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6464,10 +6458,10 @@
         <v>736</v>
       </c>
       <c r="D144" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E144" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6481,10 +6475,10 @@
         <v>737</v>
       </c>
       <c r="D145" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E145" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6498,10 +6492,10 @@
         <v>738</v>
       </c>
       <c r="D146" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E146" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6515,10 +6509,10 @@
         <v>739</v>
       </c>
       <c r="D147" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E147" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6532,10 +6526,10 @@
         <v>740</v>
       </c>
       <c r="D148" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E148" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6549,10 +6543,10 @@
         <v>741</v>
       </c>
       <c r="D149" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E149" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6566,10 +6560,10 @@
         <v>742</v>
       </c>
       <c r="D150" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E150" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6583,10 +6577,10 @@
         <v>743</v>
       </c>
       <c r="D151" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E151" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6600,10 +6594,10 @@
         <v>744</v>
       </c>
       <c r="D152" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E152" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6617,10 +6611,10 @@
         <v>745</v>
       </c>
       <c r="D153" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E153" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6634,10 +6628,10 @@
         <v>746</v>
       </c>
       <c r="D154" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E154" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6651,10 +6645,10 @@
         <v>747</v>
       </c>
       <c r="D155" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E155" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6668,10 +6662,10 @@
         <v>748</v>
       </c>
       <c r="D156" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E156" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6685,10 +6679,10 @@
         <v>749</v>
       </c>
       <c r="D157" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E157" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6702,10 +6696,10 @@
         <v>750</v>
       </c>
       <c r="D158" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E158" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6719,10 +6713,10 @@
         <v>751</v>
       </c>
       <c r="D159" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E159" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6736,10 +6730,10 @@
         <v>752</v>
       </c>
       <c r="D160" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E160" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6753,10 +6747,10 @@
         <v>753</v>
       </c>
       <c r="D161" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E161" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6770,10 +6764,10 @@
         <v>754</v>
       </c>
       <c r="D162" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E162" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6787,10 +6781,10 @@
         <v>755</v>
       </c>
       <c r="D163" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E163" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6804,10 +6798,10 @@
         <v>756</v>
       </c>
       <c r="D164" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E164" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6821,10 +6815,10 @@
         <v>757</v>
       </c>
       <c r="D165" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E165" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6838,10 +6832,10 @@
         <v>758</v>
       </c>
       <c r="D166" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E166" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6855,10 +6849,10 @@
         <v>759</v>
       </c>
       <c r="D167" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E167" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6872,10 +6866,10 @@
         <v>760</v>
       </c>
       <c r="D168" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E168" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6889,10 +6883,10 @@
         <v>761</v>
       </c>
       <c r="D169" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E169" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6906,10 +6900,10 @@
         <v>762</v>
       </c>
       <c r="D170" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E170" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6923,10 +6917,10 @@
         <v>763</v>
       </c>
       <c r="D171" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E171" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6940,10 +6934,10 @@
         <v>764</v>
       </c>
       <c r="D172" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E172" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6957,10 +6951,10 @@
         <v>765</v>
       </c>
       <c r="D173" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E173" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6974,10 +6968,10 @@
         <v>766</v>
       </c>
       <c r="D174" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E174" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6991,10 +6985,10 @@
         <v>767</v>
       </c>
       <c r="D175" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E175" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -7008,10 +7002,10 @@
         <v>768</v>
       </c>
       <c r="D176" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E176" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -7025,10 +7019,10 @@
         <v>769</v>
       </c>
       <c r="D177" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E177" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -7042,10 +7036,10 @@
         <v>770</v>
       </c>
       <c r="D178" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E178" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -7059,10 +7053,10 @@
         <v>771</v>
       </c>
       <c r="D179" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E179" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -7076,10 +7070,10 @@
         <v>772</v>
       </c>
       <c r="D180" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E180" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -7093,10 +7087,10 @@
         <v>773</v>
       </c>
       <c r="D181" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E181" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -7110,10 +7104,10 @@
         <v>774</v>
       </c>
       <c r="D182" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E182" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -7127,10 +7121,10 @@
         <v>775</v>
       </c>
       <c r="D183" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E183" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -7144,10 +7138,10 @@
         <v>776</v>
       </c>
       <c r="D184" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E184" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -7161,10 +7155,10 @@
         <v>777</v>
       </c>
       <c r="D185" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E185" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -7178,10 +7172,10 @@
         <v>778</v>
       </c>
       <c r="D186" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E186" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -7195,10 +7189,10 @@
         <v>779</v>
       </c>
       <c r="D187" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E187" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -7212,10 +7206,10 @@
         <v>780</v>
       </c>
       <c r="D188" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E188" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -7229,10 +7223,10 @@
         <v>781</v>
       </c>
       <c r="D189" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E189" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -7246,10 +7240,10 @@
         <v>782</v>
       </c>
       <c r="D190" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E190" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -7263,10 +7257,10 @@
         <v>783</v>
       </c>
       <c r="D191" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E191" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -7280,10 +7274,10 @@
         <v>784</v>
       </c>
       <c r="D192" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E192" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -7297,10 +7291,10 @@
         <v>785</v>
       </c>
       <c r="D193" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E193" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7314,10 +7308,10 @@
         <v>786</v>
       </c>
       <c r="D194" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E194" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -7331,10 +7325,10 @@
         <v>787</v>
       </c>
       <c r="D195" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E195" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7348,10 +7342,10 @@
         <v>788</v>
       </c>
       <c r="D196" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E196" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7365,10 +7359,10 @@
         <v>789</v>
       </c>
       <c r="D197" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E197" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7382,10 +7376,10 @@
         <v>790</v>
       </c>
       <c r="D198" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E198" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7399,10 +7393,10 @@
         <v>791</v>
       </c>
       <c r="D199" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E199" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7416,10 +7410,10 @@
         <v>792</v>
       </c>
       <c r="D200" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E200" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7433,10 +7427,10 @@
         <v>793</v>
       </c>
       <c r="D201" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E201" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7450,10 +7444,10 @@
         <v>794</v>
       </c>
       <c r="D202" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E202" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7467,10 +7461,10 @@
         <v>795</v>
       </c>
       <c r="D203" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E203" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7484,10 +7478,10 @@
         <v>796</v>
       </c>
       <c r="D204" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E204" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7501,10 +7495,10 @@
         <v>797</v>
       </c>
       <c r="D205" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E205" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7518,10 +7512,10 @@
         <v>798</v>
       </c>
       <c r="D206" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E206" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7535,10 +7529,10 @@
         <v>799</v>
       </c>
       <c r="D207" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E207" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7552,10 +7546,10 @@
         <v>800</v>
       </c>
       <c r="D208" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E208" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7569,10 +7563,10 @@
         <v>801</v>
       </c>
       <c r="D209" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E209" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7586,10 +7580,10 @@
         <v>802</v>
       </c>
       <c r="D210" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E210" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7603,10 +7597,10 @@
         <v>803</v>
       </c>
       <c r="D211" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E211" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7620,10 +7614,10 @@
         <v>804</v>
       </c>
       <c r="D212" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E212" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7637,10 +7631,10 @@
         <v>805</v>
       </c>
       <c r="D213" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E213" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7654,10 +7648,10 @@
         <v>806</v>
       </c>
       <c r="D214" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E214" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7671,10 +7665,10 @@
         <v>807</v>
       </c>
       <c r="D215" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E215" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7688,10 +7682,10 @@
         <v>808</v>
       </c>
       <c r="D216" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E216" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7705,10 +7699,10 @@
         <v>809</v>
       </c>
       <c r="D217" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E217" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7722,10 +7716,10 @@
         <v>810</v>
       </c>
       <c r="D218" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E218" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7739,10 +7733,10 @@
         <v>811</v>
       </c>
       <c r="D219" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E219" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7756,10 +7750,10 @@
         <v>812</v>
       </c>
       <c r="D220" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E220" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7773,10 +7767,10 @@
         <v>813</v>
       </c>
       <c r="D221" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E221" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7790,10 +7784,10 @@
         <v>814</v>
       </c>
       <c r="D222" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E222" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7804,13 +7798,13 @@
         <v>581</v>
       </c>
       <c r="C223" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D223" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E223" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7821,13 +7815,13 @@
         <v>581</v>
       </c>
       <c r="C224" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D224" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E224" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7838,13 +7832,13 @@
         <v>580</v>
       </c>
       <c r="C225" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D225" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E225" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7855,13 +7849,13 @@
         <v>580</v>
       </c>
       <c r="C226" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D226" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E226" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7872,13 +7866,13 @@
         <v>581</v>
       </c>
       <c r="C227" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D227" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E227" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7889,13 +7883,13 @@
         <v>581</v>
       </c>
       <c r="C228" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D228" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E228" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7906,13 +7900,13 @@
         <v>581</v>
       </c>
       <c r="C229" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D229" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E229" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7923,13 +7917,13 @@
         <v>581</v>
       </c>
       <c r="C230" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D230" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E230" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7940,13 +7934,13 @@
         <v>581</v>
       </c>
       <c r="C231" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D231" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E231" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7957,13 +7951,13 @@
         <v>581</v>
       </c>
       <c r="C232" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D232" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E232" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7974,13 +7968,13 @@
         <v>581</v>
       </c>
       <c r="C233" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D233" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E233" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7991,13 +7985,13 @@
         <v>581</v>
       </c>
       <c r="C234" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D234" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E234" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -8008,13 +8002,13 @@
         <v>581</v>
       </c>
       <c r="C235" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D235" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E235" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -8025,13 +8019,13 @@
         <v>581</v>
       </c>
       <c r="C236" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D236" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E236" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -8042,13 +8036,13 @@
         <v>581</v>
       </c>
       <c r="C237" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D237" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E237" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -8059,13 +8053,13 @@
         <v>581</v>
       </c>
       <c r="C238" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D238" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E238" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -8076,13 +8070,13 @@
         <v>581</v>
       </c>
       <c r="C239" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D239" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E239" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -8093,13 +8087,13 @@
         <v>581</v>
       </c>
       <c r="C240" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D240" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E240" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -8110,13 +8104,13 @@
         <v>581</v>
       </c>
       <c r="C241" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D241" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E241" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -8127,13 +8121,13 @@
         <v>581</v>
       </c>
       <c r="C242" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D242" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E242" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -8144,13 +8138,13 @@
         <v>581</v>
       </c>
       <c r="C243" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D243" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E243" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -8161,13 +8155,13 @@
         <v>582</v>
       </c>
       <c r="C244" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D244" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E244" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -8178,13 +8172,13 @@
         <v>581</v>
       </c>
       <c r="C245" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D245" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E245" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -8195,13 +8189,13 @@
         <v>583</v>
       </c>
       <c r="C246" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D246" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E246" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -8212,13 +8206,13 @@
         <v>583</v>
       </c>
       <c r="C247" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D247" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E247" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -8229,13 +8223,13 @@
         <v>583</v>
       </c>
       <c r="C248" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D248" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E248" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -8246,13 +8240,13 @@
         <v>582</v>
       </c>
       <c r="C249" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D249" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E249" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -8263,13 +8257,13 @@
         <v>582</v>
       </c>
       <c r="C250" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D250" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E250" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -8280,13 +8274,13 @@
         <v>581</v>
       </c>
       <c r="C251" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D251" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E251" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -8297,13 +8291,13 @@
         <v>581</v>
       </c>
       <c r="C252" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D252" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E252" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -8314,13 +8308,13 @@
         <v>583</v>
       </c>
       <c r="C253" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D253" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E253" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -8331,13 +8325,13 @@
         <v>583</v>
       </c>
       <c r="C254" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D254" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E254" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -8348,13 +8342,13 @@
         <v>583</v>
       </c>
       <c r="C255" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D255" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E255" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -8365,13 +8359,13 @@
         <v>583</v>
       </c>
       <c r="C256" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D256" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E256" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -8382,13 +8376,13 @@
         <v>583</v>
       </c>
       <c r="C257" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D257" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E257" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -8399,13 +8393,13 @@
         <v>583</v>
       </c>
       <c r="C258" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D258" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E258" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -8416,13 +8410,13 @@
         <v>583</v>
       </c>
       <c r="C259" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D259" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E259" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -8433,13 +8427,13 @@
         <v>583</v>
       </c>
       <c r="C260" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D260" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E260" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -8450,13 +8444,13 @@
         <v>583</v>
       </c>
       <c r="C261" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D261" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E261" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -8467,13 +8461,13 @@
         <v>580</v>
       </c>
       <c r="C262" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D262" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E262" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -8484,13 +8478,13 @@
         <v>580</v>
       </c>
       <c r="C263" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D263" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E263" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -8501,13 +8495,13 @@
         <v>580</v>
       </c>
       <c r="C264" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D264" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E264" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -8518,13 +8512,13 @@
         <v>580</v>
       </c>
       <c r="C265" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D265" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E265" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -8535,13 +8529,13 @@
         <v>580</v>
       </c>
       <c r="C266" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D266" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E266" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -8552,13 +8546,13 @@
         <v>580</v>
       </c>
       <c r="C267" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D267" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E267" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -8569,13 +8563,13 @@
         <v>580</v>
       </c>
       <c r="C268" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D268" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E268" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -8586,13 +8580,13 @@
         <v>580</v>
       </c>
       <c r="C269" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D269" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E269" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8603,13 +8597,13 @@
         <v>580</v>
       </c>
       <c r="C270" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D270" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E270" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8620,13 +8614,13 @@
         <v>580</v>
       </c>
       <c r="C271" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D271" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E271" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8637,13 +8631,13 @@
         <v>581</v>
       </c>
       <c r="C272" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D272" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E272" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8654,13 +8648,13 @@
         <v>582</v>
       </c>
       <c r="C273" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D273" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E273" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8671,13 +8665,13 @@
         <v>581</v>
       </c>
       <c r="C274" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D274" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E274" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -8688,13 +8682,13 @@
         <v>581</v>
       </c>
       <c r="C275" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D275" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E275" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8705,13 +8699,13 @@
         <v>583</v>
       </c>
       <c r="C276" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D276" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E276" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8722,13 +8716,13 @@
         <v>583</v>
       </c>
       <c r="C277" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D277" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E277" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8739,13 +8733,13 @@
         <v>583</v>
       </c>
       <c r="C278" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D278" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E278" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8756,13 +8750,13 @@
         <v>583</v>
       </c>
       <c r="C279" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D279" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E279" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8773,13 +8767,13 @@
         <v>583</v>
       </c>
       <c r="C280" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D280" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E280" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8790,13 +8784,13 @@
         <v>583</v>
       </c>
       <c r="C281" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D281" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E281" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8807,13 +8801,13 @@
         <v>580</v>
       </c>
       <c r="C282" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D282" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E282" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8824,13 +8818,13 @@
         <v>580</v>
       </c>
       <c r="C283" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D283" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E283" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8841,13 +8835,13 @@
         <v>580</v>
       </c>
       <c r="C284" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D284" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E284" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8858,13 +8852,13 @@
         <v>580</v>
       </c>
       <c r="C285" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D285" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E285" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8875,13 +8869,13 @@
         <v>580</v>
       </c>
       <c r="C286" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D286" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E286" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8892,13 +8886,13 @@
         <v>580</v>
       </c>
       <c r="C287" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D287" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E287" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8909,13 +8903,13 @@
         <v>584</v>
       </c>
       <c r="C288" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D288" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E288" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8926,13 +8920,13 @@
         <v>584</v>
       </c>
       <c r="C289" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D289" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E289" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8943,13 +8937,13 @@
         <v>584</v>
       </c>
       <c r="C290" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D290" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E290" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8960,13 +8954,13 @@
         <v>584</v>
       </c>
       <c r="C291" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D291" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E291" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8977,13 +8971,13 @@
         <v>584</v>
       </c>
       <c r="C292" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D292" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E292" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8994,13 +8988,13 @@
         <v>584</v>
       </c>
       <c r="C293" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D293" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E293" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -9011,13 +9005,13 @@
         <v>584</v>
       </c>
       <c r="C294" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D294" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E294" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -9028,13 +9022,13 @@
         <v>584</v>
       </c>
       <c r="C295" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D295" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E295" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -9045,13 +9039,13 @@
         <v>584</v>
       </c>
       <c r="C296" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D296" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E296" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -9062,13 +9056,13 @@
         <v>584</v>
       </c>
       <c r="C297" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D297" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E297" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -9079,13 +9073,13 @@
         <v>584</v>
       </c>
       <c r="C298" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D298" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E298" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -9096,13 +9090,13 @@
         <v>584</v>
       </c>
       <c r="C299" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D299" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E299" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -9113,13 +9107,13 @@
         <v>581</v>
       </c>
       <c r="C300" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D300" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E300" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -9130,13 +9124,13 @@
         <v>581</v>
       </c>
       <c r="C301" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D301" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E301" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -9147,13 +9141,13 @@
         <v>585</v>
       </c>
       <c r="C302" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D302" t="s">
         <v>585</v>
       </c>
       <c r="E302" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -9164,13 +9158,13 @@
         <v>585</v>
       </c>
       <c r="C303" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D303" t="s">
         <v>585</v>
       </c>
       <c r="E303" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -9181,13 +9175,13 @@
         <v>585</v>
       </c>
       <c r="C304" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D304" t="s">
         <v>585</v>
       </c>
       <c r="E304" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -9198,13 +9192,13 @@
         <v>585</v>
       </c>
       <c r="C305" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D305" t="s">
         <v>585</v>
       </c>
       <c r="E305" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -9215,13 +9209,13 @@
         <v>585</v>
       </c>
       <c r="C306" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D306" t="s">
         <v>585</v>
       </c>
       <c r="E306" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -9232,13 +9226,13 @@
         <v>585</v>
       </c>
       <c r="C307" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D307" t="s">
         <v>585</v>
       </c>
       <c r="E307" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -9249,13 +9243,13 @@
         <v>586</v>
       </c>
       <c r="C308" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D308" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E308" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -9266,13 +9260,13 @@
         <v>586</v>
       </c>
       <c r="C309" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D309" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E309" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -9283,13 +9277,13 @@
         <v>586</v>
       </c>
       <c r="C310" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D310" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E310" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -9300,13 +9294,13 @@
         <v>586</v>
       </c>
       <c r="C311" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D311" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E311" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -9317,13 +9311,13 @@
         <v>586</v>
       </c>
       <c r="C312" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D312" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E312" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -9334,13 +9328,13 @@
         <v>581</v>
       </c>
       <c r="C313" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D313" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E313" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -9351,13 +9345,13 @@
         <v>586</v>
       </c>
       <c r="C314" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D314" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E314" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -9368,13 +9362,13 @@
         <v>586</v>
       </c>
       <c r="C315" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D315" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E315" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -9385,13 +9379,13 @@
         <v>584</v>
       </c>
       <c r="C316" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D316" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E316" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -9402,13 +9396,13 @@
         <v>584</v>
       </c>
       <c r="C317" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D317" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E317" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -9419,13 +9413,13 @@
         <v>584</v>
       </c>
       <c r="C318" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D318" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E318" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -9436,13 +9430,13 @@
         <v>584</v>
       </c>
       <c r="C319" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D319" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E319" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -9453,13 +9447,13 @@
         <v>584</v>
       </c>
       <c r="C320" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D320" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E320" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -9470,13 +9464,13 @@
         <v>584</v>
       </c>
       <c r="C321" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D321" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E321" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -9487,13 +9481,13 @@
         <v>584</v>
       </c>
       <c r="C322" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D322" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E322" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -9504,13 +9498,13 @@
         <v>584</v>
       </c>
       <c r="C323" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D323" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E323" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -9521,13 +9515,13 @@
         <v>584</v>
       </c>
       <c r="C324" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D324" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E324" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -9538,13 +9532,13 @@
         <v>584</v>
       </c>
       <c r="C325" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D325" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E325" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -9555,13 +9549,13 @@
         <v>584</v>
       </c>
       <c r="C326" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D326" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E326" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -9572,13 +9566,13 @@
         <v>584</v>
       </c>
       <c r="C327" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D327" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E327" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -9589,13 +9583,13 @@
         <v>584</v>
       </c>
       <c r="C328" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D328" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E328" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9606,13 +9600,13 @@
         <v>581</v>
       </c>
       <c r="C329" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D329" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E329" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9623,13 +9617,13 @@
         <v>587</v>
       </c>
       <c r="C330" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D330" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E330" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -9640,13 +9634,13 @@
         <v>587</v>
       </c>
       <c r="C331" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D331" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E331" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9657,13 +9651,13 @@
         <v>587</v>
       </c>
       <c r="C332" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D332" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E332" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -9674,13 +9668,13 @@
         <v>587</v>
       </c>
       <c r="C333" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D333" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E333" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9691,13 +9685,13 @@
         <v>587</v>
       </c>
       <c r="C334" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D334" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E334" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9708,13 +9702,13 @@
         <v>587</v>
       </c>
       <c r="C335" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D335" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E335" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9725,13 +9719,13 @@
         <v>587</v>
       </c>
       <c r="C336" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D336" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E336" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9742,13 +9736,13 @@
         <v>587</v>
       </c>
       <c r="C337" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D337" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E337" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9759,13 +9753,13 @@
         <v>587</v>
       </c>
       <c r="C338" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D338" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E338" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9776,13 +9770,13 @@
         <v>587</v>
       </c>
       <c r="C339" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D339" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E339" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9790,16 +9784,16 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C340" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D340" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E340" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9810,13 +9804,13 @@
         <v>580</v>
       </c>
       <c r="C341" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D341" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E341" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9827,13 +9821,13 @@
         <v>580</v>
       </c>
       <c r="C342" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D342" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E342" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9844,13 +9838,13 @@
         <v>580</v>
       </c>
       <c r="C343" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D343" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E343" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9861,13 +9855,13 @@
         <v>580</v>
       </c>
       <c r="C344" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D344" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E344" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9878,13 +9872,13 @@
         <v>580</v>
       </c>
       <c r="C345" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D345" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E345" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9895,13 +9889,13 @@
         <v>580</v>
       </c>
       <c r="C346" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D346" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E346" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9912,13 +9906,13 @@
         <v>587</v>
       </c>
       <c r="C347" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D347" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E347" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9929,13 +9923,13 @@
         <v>587</v>
       </c>
       <c r="C348" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D348" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E348" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9946,13 +9940,13 @@
         <v>587</v>
       </c>
       <c r="C349" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D349" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E349" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9963,13 +9957,13 @@
         <v>587</v>
       </c>
       <c r="C350" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D350" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E350" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9980,13 +9974,13 @@
         <v>587</v>
       </c>
       <c r="C351" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D351" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E351" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9997,13 +9991,13 @@
         <v>580</v>
       </c>
       <c r="C352" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D352" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E352" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -10014,13 +10008,13 @@
         <v>580</v>
       </c>
       <c r="C353" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D353" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E353" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -10031,13 +10025,13 @@
         <v>580</v>
       </c>
       <c r="C354" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D354" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E354" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -10048,13 +10042,13 @@
         <v>580</v>
       </c>
       <c r="C355" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D355" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E355" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -10065,13 +10059,13 @@
         <v>580</v>
       </c>
       <c r="C356" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D356" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E356" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -10082,13 +10076,13 @@
         <v>580</v>
       </c>
       <c r="C357" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D357" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E357" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -10099,13 +10093,13 @@
         <v>580</v>
       </c>
       <c r="C358" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D358" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E358" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -10116,13 +10110,13 @@
         <v>580</v>
       </c>
       <c r="C359" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D359" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E359" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -10133,13 +10127,13 @@
         <v>580</v>
       </c>
       <c r="C360" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D360" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E360" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -10150,13 +10144,13 @@
         <v>581</v>
       </c>
       <c r="C361" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D361" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E361" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -10167,13 +10161,13 @@
         <v>585</v>
       </c>
       <c r="C362" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D362" t="s">
         <v>585</v>
       </c>
       <c r="E362" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -10184,13 +10178,13 @@
         <v>585</v>
       </c>
       <c r="C363" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D363" t="s">
         <v>585</v>
       </c>
       <c r="E363" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -10201,13 +10195,13 @@
         <v>585</v>
       </c>
       <c r="C364" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D364" t="s">
         <v>585</v>
       </c>
       <c r="E364" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -10218,13 +10212,13 @@
         <v>585</v>
       </c>
       <c r="C365" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D365" t="s">
         <v>585</v>
       </c>
       <c r="E365" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -10235,13 +10229,13 @@
         <v>585</v>
       </c>
       <c r="C366" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D366" t="s">
         <v>585</v>
       </c>
       <c r="E366" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -10252,13 +10246,13 @@
         <v>585</v>
       </c>
       <c r="C367" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D367" t="s">
         <v>585</v>
       </c>
       <c r="E367" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -10269,13 +10263,13 @@
         <v>585</v>
       </c>
       <c r="C368" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D368" t="s">
         <v>585</v>
       </c>
       <c r="E368" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -10286,13 +10280,13 @@
         <v>585</v>
       </c>
       <c r="C369" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D369" t="s">
         <v>585</v>
       </c>
       <c r="E369" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -10303,13 +10297,13 @@
         <v>585</v>
       </c>
       <c r="C370" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D370" t="s">
         <v>585</v>
       </c>
       <c r="E370" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -10320,13 +10314,13 @@
         <v>585</v>
       </c>
       <c r="C371" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D371" t="s">
         <v>585</v>
       </c>
       <c r="E371" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -10337,13 +10331,13 @@
         <v>580</v>
       </c>
       <c r="C372" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D372" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E372" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -10354,13 +10348,13 @@
         <v>580</v>
       </c>
       <c r="C373" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D373" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E373" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -10371,13 +10365,13 @@
         <v>580</v>
       </c>
       <c r="C374" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D374" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E374" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -10388,13 +10382,13 @@
         <v>580</v>
       </c>
       <c r="C375" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D375" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E375" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -10405,13 +10399,13 @@
         <v>587</v>
       </c>
       <c r="C376" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D376" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E376" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -10422,13 +10416,13 @@
         <v>587</v>
       </c>
       <c r="C377" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D377" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E377" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -10439,13 +10433,13 @@
         <v>587</v>
       </c>
       <c r="C378" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D378" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E378" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -10456,13 +10450,13 @@
         <v>587</v>
       </c>
       <c r="C379" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D379" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E379" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -10473,13 +10467,13 @@
         <v>580</v>
       </c>
       <c r="C380" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D380" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E380" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -10490,13 +10484,13 @@
         <v>580</v>
       </c>
       <c r="C381" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D381" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E381" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -10507,13 +10501,13 @@
         <v>580</v>
       </c>
       <c r="C382" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D382" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E382" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -10524,13 +10518,13 @@
         <v>580</v>
       </c>
       <c r="C383" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D383" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E383" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -10541,13 +10535,13 @@
         <v>581</v>
       </c>
       <c r="C384" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D384" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E384" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -10558,13 +10552,13 @@
         <v>588</v>
       </c>
       <c r="C385" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D385" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E385" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -10575,13 +10569,13 @@
         <v>588</v>
       </c>
       <c r="C386" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D386" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E386" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -10592,13 +10586,13 @@
         <v>588</v>
       </c>
       <c r="C387" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D387" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E387" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10609,13 +10603,13 @@
         <v>588</v>
       </c>
       <c r="C388" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D388" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E388" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10626,13 +10620,13 @@
         <v>588</v>
       </c>
       <c r="C389" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D389" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E389" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10643,13 +10637,13 @@
         <v>588</v>
       </c>
       <c r="C390" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D390" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E390" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10660,13 +10654,13 @@
         <v>588</v>
       </c>
       <c r="C391" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D391" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E391" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10677,13 +10671,13 @@
         <v>581</v>
       </c>
       <c r="C392" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D392" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E392" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -10694,13 +10688,13 @@
         <v>588</v>
       </c>
       <c r="C393" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D393" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E393" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -10711,13 +10705,13 @@
         <v>588</v>
       </c>
       <c r="C394" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D394" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E394" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10728,13 +10722,13 @@
         <v>588</v>
       </c>
       <c r="C395" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D395" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E395" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10745,13 +10739,13 @@
         <v>589</v>
       </c>
       <c r="C396" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D396" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E396" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10762,13 +10756,13 @@
         <v>589</v>
       </c>
       <c r="C397" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D397" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E397" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10779,13 +10773,13 @@
         <v>589</v>
       </c>
       <c r="C398" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D398" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E398" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10796,13 +10790,13 @@
         <v>589</v>
       </c>
       <c r="C399" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D399" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E399" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10813,13 +10807,13 @@
         <v>589</v>
       </c>
       <c r="C400" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D400" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E400" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10830,13 +10824,13 @@
         <v>589</v>
       </c>
       <c r="C401" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D401" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E401" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10847,13 +10841,13 @@
         <v>589</v>
       </c>
       <c r="C402" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D402" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E402" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10864,13 +10858,13 @@
         <v>589</v>
       </c>
       <c r="C403" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D403" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E403" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10881,13 +10875,13 @@
         <v>589</v>
       </c>
       <c r="C404" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D404" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E404" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10898,13 +10892,13 @@
         <v>589</v>
       </c>
       <c r="C405" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D405" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E405" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10915,13 +10909,13 @@
         <v>589</v>
       </c>
       <c r="C406" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D406" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E406" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10932,13 +10926,13 @@
         <v>589</v>
       </c>
       <c r="C407" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D407" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E407" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10949,13 +10943,13 @@
         <v>589</v>
       </c>
       <c r="C408" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D408" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E408" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10966,13 +10960,13 @@
         <v>589</v>
       </c>
       <c r="C409" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D409" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E409" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10983,13 +10977,13 @@
         <v>589</v>
       </c>
       <c r="C410" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D410" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E410" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -11000,13 +10994,13 @@
         <v>589</v>
       </c>
       <c r="C411" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D411" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E411" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -11017,13 +11011,13 @@
         <v>589</v>
       </c>
       <c r="C412" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D412" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E412" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -11034,13 +11028,13 @@
         <v>589</v>
       </c>
       <c r="C413" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D413" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E413" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -11051,13 +11045,13 @@
         <v>589</v>
       </c>
       <c r="C414" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D414" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E414" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -11071,10 +11065,10 @@
         <v>611</v>
       </c>
       <c r="D415" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E415" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -11085,13 +11079,13 @@
         <v>589</v>
       </c>
       <c r="C416" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D416" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E416" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -11102,13 +11096,13 @@
         <v>589</v>
       </c>
       <c r="C417" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D417" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E417" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -11119,13 +11113,13 @@
         <v>589</v>
       </c>
       <c r="C418" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D418" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E418" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -11136,13 +11130,13 @@
         <v>589</v>
       </c>
       <c r="C419" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D419" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E419" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -11153,13 +11147,13 @@
         <v>589</v>
       </c>
       <c r="C420" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D420" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E420" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -11170,13 +11164,13 @@
         <v>589</v>
       </c>
       <c r="C421" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D421" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E421" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -11187,13 +11181,13 @@
         <v>589</v>
       </c>
       <c r="C422" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D422" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E422" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -11204,13 +11198,13 @@
         <v>589</v>
       </c>
       <c r="C423" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D423" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E423" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -11221,13 +11215,13 @@
         <v>589</v>
       </c>
       <c r="C424" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D424" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E424" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -11238,13 +11232,13 @@
         <v>589</v>
       </c>
       <c r="C425" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D425" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E425" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -11255,13 +11249,13 @@
         <v>589</v>
       </c>
       <c r="C426" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D426" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E426" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -11272,13 +11266,13 @@
         <v>589</v>
       </c>
       <c r="C427" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D427" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E427" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -11289,13 +11283,13 @@
         <v>580</v>
       </c>
       <c r="C428" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D428" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E428" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -11306,13 +11300,13 @@
         <v>580</v>
       </c>
       <c r="C429" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D429" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E429" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -11323,13 +11317,13 @@
         <v>590</v>
       </c>
       <c r="C430" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D430" t="s">
         <v>590</v>
       </c>
       <c r="E430" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -11340,13 +11334,13 @@
         <v>590</v>
       </c>
       <c r="C431" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D431" t="s">
         <v>590</v>
       </c>
       <c r="E431" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -11357,13 +11351,13 @@
         <v>590</v>
       </c>
       <c r="C432" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D432" t="s">
         <v>590</v>
       </c>
       <c r="E432" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -11374,13 +11368,13 @@
         <v>590</v>
       </c>
       <c r="C433" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D433" t="s">
         <v>590</v>
       </c>
       <c r="E433" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -11391,13 +11385,13 @@
         <v>590</v>
       </c>
       <c r="C434" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D434" t="s">
         <v>590</v>
       </c>
       <c r="E434" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -11408,13 +11402,13 @@
         <v>590</v>
       </c>
       <c r="C435" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D435" t="s">
         <v>590</v>
       </c>
       <c r="E435" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -11425,13 +11419,13 @@
         <v>590</v>
       </c>
       <c r="C436" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D436" t="s">
         <v>590</v>
       </c>
       <c r="E436" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -11442,13 +11436,13 @@
         <v>590</v>
       </c>
       <c r="C437" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D437" t="s">
         <v>590</v>
       </c>
       <c r="E437" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -11459,13 +11453,13 @@
         <v>590</v>
       </c>
       <c r="C438" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D438" t="s">
         <v>590</v>
       </c>
       <c r="E438" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -11476,13 +11470,13 @@
         <v>590</v>
       </c>
       <c r="C439" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D439" t="s">
         <v>590</v>
       </c>
       <c r="E439" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -11493,13 +11487,13 @@
         <v>590</v>
       </c>
       <c r="C440" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D440" t="s">
         <v>590</v>
       </c>
       <c r="E440" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -11510,13 +11504,13 @@
         <v>590</v>
       </c>
       <c r="C441" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D441" t="s">
         <v>590</v>
       </c>
       <c r="E441" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -11527,13 +11521,13 @@
         <v>589</v>
       </c>
       <c r="C442" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D442" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E442" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -11544,13 +11538,13 @@
         <v>589</v>
       </c>
       <c r="C443" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D443" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E443" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -11561,13 +11555,13 @@
         <v>591</v>
       </c>
       <c r="C444" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D444" t="s">
         <v>591</v>
       </c>
       <c r="E444" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -11578,13 +11572,13 @@
         <v>591</v>
       </c>
       <c r="C445" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D445" t="s">
         <v>591</v>
       </c>
       <c r="E445" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -11595,13 +11589,13 @@
         <v>591</v>
       </c>
       <c r="C446" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D446" t="s">
         <v>591</v>
       </c>
       <c r="E446" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -11612,13 +11606,13 @@
         <v>591</v>
       </c>
       <c r="C447" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D447" t="s">
         <v>591</v>
       </c>
       <c r="E447" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -11629,13 +11623,13 @@
         <v>591</v>
       </c>
       <c r="C448" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D448" t="s">
         <v>591</v>
       </c>
       <c r="E448" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -11646,13 +11640,13 @@
         <v>591</v>
       </c>
       <c r="C449" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D449" t="s">
         <v>591</v>
       </c>
       <c r="E449" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -11663,13 +11657,13 @@
         <v>591</v>
       </c>
       <c r="C450" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D450" t="s">
         <v>591</v>
       </c>
       <c r="E450" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -11680,13 +11674,13 @@
         <v>591</v>
       </c>
       <c r="C451" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D451" t="s">
         <v>591</v>
       </c>
       <c r="E451" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -11697,13 +11691,13 @@
         <v>591</v>
       </c>
       <c r="C452" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D452" t="s">
         <v>591</v>
       </c>
       <c r="E452" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11714,13 +11708,13 @@
         <v>589</v>
       </c>
       <c r="C453" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D453" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E453" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11731,13 +11725,13 @@
         <v>589</v>
       </c>
       <c r="C454" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D454" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E454" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11748,13 +11742,13 @@
         <v>589</v>
       </c>
       <c r="C455" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D455" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E455" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11765,13 +11759,13 @@
         <v>589</v>
       </c>
       <c r="C456" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D456" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E456" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11782,13 +11776,13 @@
         <v>589</v>
       </c>
       <c r="C457" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D457" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E457" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11799,13 +11793,13 @@
         <v>589</v>
       </c>
       <c r="C458" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D458" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E458" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11816,13 +11810,13 @@
         <v>589</v>
       </c>
       <c r="C459" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D459" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E459" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11833,13 +11827,13 @@
         <v>589</v>
       </c>
       <c r="C460" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D460" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E460" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11850,13 +11844,13 @@
         <v>589</v>
       </c>
       <c r="C461" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D461" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E461" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11867,13 +11861,13 @@
         <v>589</v>
       </c>
       <c r="C462" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D462" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E462" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11884,13 +11878,13 @@
         <v>589</v>
       </c>
       <c r="C463" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D463" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E463" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11901,13 +11895,13 @@
         <v>589</v>
       </c>
       <c r="C464" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D464" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E464" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11918,13 +11912,13 @@
         <v>589</v>
       </c>
       <c r="C465" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D465" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E465" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11935,13 +11929,13 @@
         <v>589</v>
       </c>
       <c r="C466" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D466" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E466" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11952,13 +11946,13 @@
         <v>585</v>
       </c>
       <c r="C467" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D467" t="s">
         <v>585</v>
       </c>
       <c r="E467" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11969,13 +11963,13 @@
         <v>585</v>
       </c>
       <c r="C468" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D468" t="s">
         <v>585</v>
       </c>
       <c r="E468" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11986,13 +11980,13 @@
         <v>585</v>
       </c>
       <c r="C469" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D469" t="s">
         <v>585</v>
       </c>
       <c r="E469" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -12003,13 +11997,13 @@
         <v>585</v>
       </c>
       <c r="C470" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D470" t="s">
         <v>585</v>
       </c>
       <c r="E470" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -12020,13 +12014,13 @@
         <v>585</v>
       </c>
       <c r="C471" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D471" t="s">
         <v>585</v>
       </c>
       <c r="E471" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -12037,13 +12031,13 @@
         <v>585</v>
       </c>
       <c r="C472" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D472" t="s">
         <v>585</v>
       </c>
       <c r="E472" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -12054,13 +12048,13 @@
         <v>585</v>
       </c>
       <c r="C473" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D473" t="s">
         <v>585</v>
       </c>
       <c r="E473" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -12071,13 +12065,13 @@
         <v>585</v>
       </c>
       <c r="C474" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D474" t="s">
         <v>585</v>
       </c>
       <c r="E474" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -12088,13 +12082,13 @@
         <v>585</v>
       </c>
       <c r="C475" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D475" t="s">
         <v>585</v>
       </c>
       <c r="E475" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -12105,13 +12099,13 @@
         <v>585</v>
       </c>
       <c r="C476" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D476" t="s">
         <v>585</v>
       </c>
       <c r="E476" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -12122,13 +12116,13 @@
         <v>589</v>
       </c>
       <c r="C477" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D477" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E477" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -12139,13 +12133,13 @@
         <v>589</v>
       </c>
       <c r="C478" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D478" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E478" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -12156,13 +12150,13 @@
         <v>589</v>
       </c>
       <c r="C479" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D479" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E479" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -12173,13 +12167,13 @@
         <v>589</v>
       </c>
       <c r="C480" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D480" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E480" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -12190,13 +12184,13 @@
         <v>589</v>
       </c>
       <c r="C481" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D481" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E481" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -12207,13 +12201,13 @@
         <v>589</v>
       </c>
       <c r="C482" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D482" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E482" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -12224,13 +12218,13 @@
         <v>589</v>
       </c>
       <c r="C483" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D483" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E483" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -12241,13 +12235,13 @@
         <v>589</v>
       </c>
       <c r="C484" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D484" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E484" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -12258,13 +12252,13 @@
         <v>589</v>
       </c>
       <c r="C485" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D485" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E485" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -12275,13 +12269,13 @@
         <v>589</v>
       </c>
       <c r="C486" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D486" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E486" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -12292,13 +12286,13 @@
         <v>580</v>
       </c>
       <c r="C487" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D487" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E487" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -12309,13 +12303,13 @@
         <v>580</v>
       </c>
       <c r="C488" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D488" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E488" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -12326,13 +12320,13 @@
         <v>592</v>
       </c>
       <c r="C489" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D489" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E489" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -12343,13 +12337,13 @@
         <v>592</v>
       </c>
       <c r="C490" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D490" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E490" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -12360,13 +12354,13 @@
         <v>592</v>
       </c>
       <c r="C491" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D491" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E491" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -12377,13 +12371,13 @@
         <v>592</v>
       </c>
       <c r="C492" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D492" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E492" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -12394,13 +12388,13 @@
         <v>592</v>
       </c>
       <c r="C493" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D493" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E493" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -12411,13 +12405,13 @@
         <v>592</v>
       </c>
       <c r="C494" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D494" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E494" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -12428,13 +12422,13 @@
         <v>592</v>
       </c>
       <c r="C495" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D495" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E495" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -12445,13 +12439,13 @@
         <v>592</v>
       </c>
       <c r="C496" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D496" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E496" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -12462,13 +12456,13 @@
         <v>592</v>
       </c>
       <c r="C497" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D497" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E497" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -12479,13 +12473,13 @@
         <v>592</v>
       </c>
       <c r="C498" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D498" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E498" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -12496,13 +12490,13 @@
         <v>592</v>
       </c>
       <c r="C499" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D499" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E499" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -12513,13 +12507,13 @@
         <v>592</v>
       </c>
       <c r="C500" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D500" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E500" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -12530,13 +12524,13 @@
         <v>592</v>
       </c>
       <c r="C501" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D501" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E501" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -12547,13 +12541,13 @@
         <v>592</v>
       </c>
       <c r="C502" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D502" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E502" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -12564,13 +12558,13 @@
         <v>592</v>
       </c>
       <c r="C503" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D503" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E503" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -12581,13 +12575,13 @@
         <v>592</v>
       </c>
       <c r="C504" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D504" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E504" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -12598,13 +12592,13 @@
         <v>592</v>
       </c>
       <c r="C505" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D505" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E505" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -12615,13 +12609,13 @@
         <v>592</v>
       </c>
       <c r="C506" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D506" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E506" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -12632,13 +12626,13 @@
         <v>592</v>
       </c>
       <c r="C507" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D507" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E507" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -12649,13 +12643,13 @@
         <v>592</v>
       </c>
       <c r="C508" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D508" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E508" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -12666,13 +12660,13 @@
         <v>592</v>
       </c>
       <c r="C509" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D509" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E509" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -12683,13 +12677,13 @@
         <v>592</v>
       </c>
       <c r="C510" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D510" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E510" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -12700,13 +12694,13 @@
         <v>592</v>
       </c>
       <c r="C511" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D511" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E511" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -12717,13 +12711,13 @@
         <v>592</v>
       </c>
       <c r="C512" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D512" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E512" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -12734,13 +12728,13 @@
         <v>592</v>
       </c>
       <c r="C513" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D513" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E513" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -12751,13 +12745,13 @@
         <v>592</v>
       </c>
       <c r="C514" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D514" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E514" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -12768,13 +12762,13 @@
         <v>592</v>
       </c>
       <c r="C515" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D515" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E515" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -12785,13 +12779,13 @@
         <v>592</v>
       </c>
       <c r="C516" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D516" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E516" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -12802,13 +12796,13 @@
         <v>592</v>
       </c>
       <c r="C517" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D517" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E517" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -12819,13 +12813,13 @@
         <v>592</v>
       </c>
       <c r="C518" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D518" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E518" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -12836,13 +12830,13 @@
         <v>592</v>
       </c>
       <c r="C519" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D519" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E519" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -12853,13 +12847,13 @@
         <v>592</v>
       </c>
       <c r="C520" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D520" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E520" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12870,13 +12864,13 @@
         <v>592</v>
       </c>
       <c r="C521" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D521" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E521" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12887,13 +12881,13 @@
         <v>592</v>
       </c>
       <c r="C522" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D522" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E522" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -12904,13 +12898,13 @@
         <v>592</v>
       </c>
       <c r="C523" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D523" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E523" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12921,13 +12915,13 @@
         <v>592</v>
       </c>
       <c r="C524" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D524" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E524" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12938,13 +12932,13 @@
         <v>592</v>
       </c>
       <c r="C525" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D525" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E525" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12955,13 +12949,13 @@
         <v>592</v>
       </c>
       <c r="C526" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D526" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E526" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12972,13 +12966,13 @@
         <v>592</v>
       </c>
       <c r="C527" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D527" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E527" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12989,13 +12983,13 @@
         <v>592</v>
       </c>
       <c r="C528" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D528" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E528" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -13006,13 +13000,13 @@
         <v>592</v>
       </c>
       <c r="C529" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D529" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E529" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -13023,13 +13017,13 @@
         <v>592</v>
       </c>
       <c r="C530" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D530" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E530" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -13040,13 +13034,13 @@
         <v>592</v>
       </c>
       <c r="C531" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D531" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E531" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -13057,13 +13051,13 @@
         <v>592</v>
       </c>
       <c r="C532" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D532" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E532" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -13074,13 +13068,13 @@
         <v>592</v>
       </c>
       <c r="C533" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D533" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E533" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -13091,13 +13085,13 @@
         <v>592</v>
       </c>
       <c r="C534" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D534" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E534" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -13108,13 +13102,13 @@
         <v>592</v>
       </c>
       <c r="C535" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D535" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E535" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -13125,13 +13119,13 @@
         <v>592</v>
       </c>
       <c r="C536" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D536" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E536" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -13142,13 +13136,13 @@
         <v>592</v>
       </c>
       <c r="C537" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D537" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E537" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -13159,13 +13153,13 @@
         <v>592</v>
       </c>
       <c r="C538" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D538" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E538" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -13176,13 +13170,13 @@
         <v>592</v>
       </c>
       <c r="C539" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D539" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E539" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -13193,13 +13187,13 @@
         <v>592</v>
       </c>
       <c r="C540" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D540" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E540" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -13210,13 +13204,13 @@
         <v>592</v>
       </c>
       <c r="C541" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D541" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E541" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -13227,13 +13221,13 @@
         <v>592</v>
       </c>
       <c r="C542" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D542" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E542" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -13244,13 +13238,13 @@
         <v>592</v>
       </c>
       <c r="C543" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D543" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E543" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -13261,13 +13255,13 @@
         <v>592</v>
       </c>
       <c r="C544" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D544" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E544" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -13278,13 +13272,13 @@
         <v>592</v>
       </c>
       <c r="C545" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D545" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E545" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -13295,13 +13289,13 @@
         <v>592</v>
       </c>
       <c r="C546" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D546" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E546" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -13312,13 +13306,13 @@
         <v>592</v>
       </c>
       <c r="C547" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D547" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E547" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -13329,13 +13323,13 @@
         <v>592</v>
       </c>
       <c r="C548" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D548" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E548" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -13346,13 +13340,13 @@
         <v>592</v>
       </c>
       <c r="C549" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D549" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E549" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -13363,13 +13357,13 @@
         <v>592</v>
       </c>
       <c r="C550" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D550" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E550" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -13380,13 +13374,13 @@
         <v>592</v>
       </c>
       <c r="C551" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D551" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E551" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -13397,13 +13391,13 @@
         <v>592</v>
       </c>
       <c r="C552" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D552" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E552" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -13414,13 +13408,13 @@
         <v>592</v>
       </c>
       <c r="C553" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D553" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E553" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -13431,13 +13425,13 @@
         <v>592</v>
       </c>
       <c r="C554" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D554" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E554" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -13448,13 +13442,13 @@
         <v>592</v>
       </c>
       <c r="C555" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D555" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E555" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -13465,13 +13459,13 @@
         <v>592</v>
       </c>
       <c r="C556" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D556" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E556" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -13482,13 +13476,13 @@
         <v>592</v>
       </c>
       <c r="C557" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D557" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E557" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -13499,13 +13493,13 @@
         <v>585</v>
       </c>
       <c r="C558" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D558" t="s">
         <v>585</v>
       </c>
       <c r="E558" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -13516,13 +13510,13 @@
         <v>585</v>
       </c>
       <c r="C559" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D559" t="s">
         <v>585</v>
       </c>
       <c r="E559" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -13533,13 +13527,13 @@
         <v>585</v>
       </c>
       <c r="C560" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D560" t="s">
         <v>585</v>
       </c>
       <c r="E560" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -13550,13 +13544,13 @@
         <v>585</v>
       </c>
       <c r="C561" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D561" t="s">
         <v>585</v>
       </c>
       <c r="E561" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -13567,13 +13561,13 @@
         <v>585</v>
       </c>
       <c r="C562" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D562" t="s">
         <v>585</v>
       </c>
       <c r="E562" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -13584,13 +13578,13 @@
         <v>585</v>
       </c>
       <c r="C563" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D563" t="s">
         <v>585</v>
       </c>
       <c r="E563" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -13601,13 +13595,13 @@
         <v>585</v>
       </c>
       <c r="C564" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D564" t="s">
         <v>585</v>
       </c>
       <c r="E564" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -13618,13 +13612,13 @@
         <v>585</v>
       </c>
       <c r="C565" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D565" t="s">
         <v>585</v>
       </c>
       <c r="E565" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -13635,13 +13629,13 @@
         <v>585</v>
       </c>
       <c r="C566" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D566" t="s">
         <v>585</v>
       </c>
       <c r="E566" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -13652,13 +13646,13 @@
         <v>585</v>
       </c>
       <c r="C567" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D567" t="s">
         <v>585</v>
       </c>
       <c r="E567" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -13669,13 +13663,13 @@
         <v>585</v>
       </c>
       <c r="C568" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D568" t="s">
         <v>585</v>
       </c>
       <c r="E568" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -13686,13 +13680,13 @@
         <v>593</v>
       </c>
       <c r="C569" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D569" t="s">
         <v>593</v>
       </c>
       <c r="E569" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -13703,13 +13697,13 @@
         <v>593</v>
       </c>
       <c r="C570" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D570" t="s">
         <v>593</v>
       </c>
       <c r="E570" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -13720,13 +13714,13 @@
         <v>593</v>
       </c>
       <c r="C571" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D571" t="s">
         <v>593</v>
       </c>
       <c r="E571" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -13737,13 +13731,13 @@
         <v>593</v>
       </c>
       <c r="C572" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D572" t="s">
         <v>593</v>
       </c>
       <c r="E572" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -13754,13 +13748,13 @@
         <v>593</v>
       </c>
       <c r="C573" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D573" t="s">
         <v>593</v>
       </c>
       <c r="E573" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -13771,13 +13765,13 @@
         <v>592</v>
       </c>
       <c r="C574" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D574" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E574" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -13788,13 +13782,13 @@
         <v>592</v>
       </c>
       <c r="C575" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D575" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E575" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -13805,13 +13799,13 @@
         <v>592</v>
       </c>
       <c r="C576" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D576" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E576" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -31,24 +31,288 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>vaccha 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>bhoga 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -58,6 +322,45 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -70,309 +373,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>vaccha 1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -493,150 +493,150 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>paṭisevati 1</t>
+  </si>
+  <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>ārabhati 1</t>
+  </si>
+  <si>
+    <t>icchati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
     <t>vattati 1</t>
   </si>
   <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>paṭisevati 1</t>
-  </si>
-  <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1</t>
-  </si>
-  <si>
-    <t>icchati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -709,33 +709,33 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>samāpajjati 2</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>samāpajjati 2</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -745,27 +745,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -817,15 +817,15 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -874,51 +874,51 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
+    <t>mama 2</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>no 4</t>
+  </si>
+  <si>
+    <t>no 6</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 7</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
     <t>me 2</t>
   </si>
   <si>
-    <t>mama 2</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 7</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
     <t>ahaṃ</t>
   </si>
   <si>
@@ -934,18 +934,18 @@
     <t>neti 1</t>
   </si>
   <si>
+    <t>na 1</t>
+  </si>
+  <si>
+    <t>saddhiṃ</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 3</t>
   </si>
   <si>
-    <t>na 1</t>
-  </si>
-  <si>
-    <t>saddhiṃ</t>
-  </si>
-  <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1</t>
   </si>
   <si>
@@ -976,27 +976,27 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
+    <t>taṃ 3</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
+    <t>tumhe 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
-    <t>taṃ 3</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
-    <t>tumhe 2</t>
-  </si>
-  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
@@ -1051,12 +1051,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -1069,30 +1069,30 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -1183,21 +1183,21 @@
     <t>nahāyati</t>
   </si>
   <si>
+    <t>jāneyya</t>
+  </si>
+  <si>
+    <t>āgaccheyya</t>
+  </si>
+  <si>
+    <t>vadeyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>passeyya 1</t>
   </si>
   <si>
-    <t>jāneyya</t>
-  </si>
-  <si>
-    <t>āgaccheyya</t>
-  </si>
-  <si>
-    <t>vadeyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
@@ -1216,63 +1216,63 @@
     <t>assa 3</t>
   </si>
   <si>
+    <t>sikkhā 2</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>vīmaṃsā 1</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>desanā 3</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sikkhā 2</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>vīmaṃsā 1</t>
-  </si>
-  <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>desanā 3</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>avijjā</t>
   </si>
   <si>
@@ -1357,12 +1357,12 @@
     <t>dhītar</t>
   </si>
   <si>
+    <t>āgamma 1</t>
+  </si>
+  <si>
     <t>samādāya 2</t>
   </si>
   <si>
-    <t>āgamma 1</t>
-  </si>
-  <si>
     <t>vineyya 1</t>
   </si>
   <si>
@@ -1384,33 +1384,33 @@
     <t>nisajja</t>
   </si>
   <si>
+    <t>ṭhiti 1</t>
+  </si>
+  <si>
+    <t>kuṭi 1</t>
+  </si>
+  <si>
+    <t>visuddhi 1</t>
+  </si>
+  <si>
+    <t>āpatti 2</t>
+  </si>
+  <si>
     <t>diṭṭhi 1</t>
   </si>
   <si>
+    <t>samāpatti 1</t>
+  </si>
+  <si>
+    <t>ruci</t>
+  </si>
+  <si>
+    <t>sugati</t>
+  </si>
+  <si>
     <t>sati 2</t>
   </si>
   <si>
-    <t>ṭhiti 1</t>
-  </si>
-  <si>
-    <t>kuṭi 1</t>
-  </si>
-  <si>
-    <t>visuddhi 1</t>
-  </si>
-  <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>samāpatti 1</t>
-  </si>
-  <si>
-    <t>ruci</t>
-  </si>
-  <si>
-    <t>sugati</t>
-  </si>
-  <si>
     <t>pīti 1</t>
   </si>
   <si>
@@ -1438,12 +1438,12 @@
     <t>ekato 1</t>
   </si>
   <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
     <t>tattha 1</t>
   </si>
   <si>
@@ -1492,126 +1492,126 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>bhūta 3</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1</t>
+  </si>
+  <si>
+    <t>vattha 1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>sikkhāpada</t>
   </si>
   <si>
     <t>bhaya 3</t>
   </si>
   <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
     <t>rūpa 3</t>
   </si>
   <si>
-    <t>bhūta 3</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1</t>
-  </si>
-  <si>
-    <t>vattha 1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
     <t>viññāṇa 1</t>
   </si>
   <si>
@@ -1696,36 +1696,36 @@
     <t>aṭṭhi 1</t>
   </si>
   <si>
+    <t>tāva 1</t>
+  </si>
+  <si>
+    <t>api 7</t>
+  </si>
+  <si>
     <t>nu</t>
   </si>
   <si>
     <t>kallaṃ</t>
   </si>
   <si>
+    <t>alaṃ 2</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
     <t>alaṃ 1</t>
   </si>
   <si>
-    <t>tāva 1</t>
-  </si>
-  <si>
-    <t>api 7</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
     <t>alaṃ 5</t>
   </si>
   <si>
@@ -1798,24 +1798,288 @@
     <t>inf</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of)</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>obstacle; danger; lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possession; property</t>
+  </si>
+  <si>
+    <t>cause; reason; supporting condition; precondition; requirement</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
+  </si>
+  <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>profit; benefit; advantage</t>
+  </si>
+  <si>
+    <t>the wind; air</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; dung; faeces</t>
+  </si>
+  <si>
+    <t>urine; lit. flowing out</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>cross-legged sitting position</t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -1825,6 +2089,45 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -1837,309 +2140,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>profit; benefit; advantage</t>
-  </si>
-  <si>
-    <t>the wind; air</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; dung; faeces</t>
-  </si>
-  <si>
-    <t>urine; lit. flowing out</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>cross-legged sitting position</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -2260,150 +2260,150 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>practices; indulges (in); engages (in); lit. associates</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>goes forth; ordains as monk; renounces the household life</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>begins; starts; arouses</t>
+  </si>
+  <si>
+    <t>wishes; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>leaves; abandons; gives up; forsakes</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>is; is being; becomes; exists</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
+  </si>
+  <si>
+    <t>tries; makes an effort; strives for; exerts oneself</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>enters; goes into</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>grows; increases; multiplies</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>practices; indulges (in); engages (in); lit. associates</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>goes forth; ordains as monk; renounces the household life</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>begins; starts; arouses</t>
-  </si>
-  <si>
-    <t>wishes; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>leaves; abandons; gives up; forsakes</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
-  </si>
-  <si>
-    <t>tries; makes an effort; strives for; exerts oneself</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>enters; goes into</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>grows; increases; multiplies</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -2473,33 +2473,33 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>engages (in); practices; performs</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>engages (in); practices; performs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -2509,27 +2509,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -2581,15 +2581,15 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -2638,48 +2638,48 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>our; of us</t>
+  </si>
+  <si>
     <t>by me</t>
   </si>
   <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>our; of us</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -2695,18 +2695,18 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
+    <t>(negative particle); no; not</t>
+  </si>
+  <si>
+    <t>together (with); with</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
-  </si>
-  <si>
-    <t>together (with); with</t>
-  </si>
-  <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>no; not</t>
   </si>
   <si>
@@ -2737,27 +2737,27 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
+    <t>you (object)</t>
+  </si>
+  <si>
     <t>to you; for you all</t>
   </si>
   <si>
+    <t>you all; you (respectful plural) (object)</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -2809,12 +2809,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -2827,30 +2827,30 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -2872,12 +2872,12 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
-  </si>
-  <si>
     <t>when; whenever; lit. at whichever time</t>
   </si>
   <si>
@@ -2941,21 +2941,21 @@
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
+    <t>could know; would understand; could be aware; would find out</t>
+  </si>
+  <si>
+    <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>should say; could speak</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could know; would understand; could be aware; would find out</t>
-  </si>
-  <si>
-    <t>could come; would come along; could approach; would arrive</t>
-  </si>
-  <si>
-    <t>should say; could speak</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
     <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
@@ -2974,60 +2974,60 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
+    <t>training; practice</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. in singing way</t>
+  </si>
+  <si>
+    <t>decay; aging</t>
+  </si>
+  <si>
+    <t>inquiry; judgement; investigation; discrimination</t>
+  </si>
+  <si>
+    <t>direction; point of the compass; cardinal point</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; insight</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness</t>
+  </si>
+  <si>
+    <t>army; multitude</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
+  </si>
+  <si>
+    <t>word; speech; statement; talk</t>
+  </si>
+  <si>
+    <t>craving; wanting; desire; lit. thirst</t>
+  </si>
+  <si>
+    <t>sensation; feeling; felt experience</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee</t>
+  </si>
+  <si>
+    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
+  </si>
+  <si>
     <t>personal experience; realization</t>
   </si>
   <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>training; practice</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>inquiry; judgement; investigation; discrimination</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; insight</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
-  </si>
-  <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee</t>
-  </si>
-  <si>
     <t>ignorance; illusion; not knowing; not understanding; stupidity</t>
   </si>
   <si>
@@ -3109,12 +3109,12 @@
     <t>daughter</t>
   </si>
   <si>
+    <t>coming; approaching</t>
+  </si>
+  <si>
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
-    <t>coming; approaching</t>
-  </si>
-  <si>
     <t>removing; getting rid of; giving up; driving out</t>
   </si>
   <si>
@@ -3136,33 +3136,33 @@
     <t>sitting down</t>
   </si>
   <si>
+    <t>stability; constancy; long lasting; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>hut</t>
+  </si>
+  <si>
+    <t>cleanness; purity (of); purification (of); holiness</t>
+  </si>
+  <si>
+    <t>(vinaya) offence; transgression</t>
+  </si>
+  <si>
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
+    <t>attainment; meditation achievement</t>
+  </si>
+  <si>
+    <t>liking; preference; inclination; approval; lit. pleasure</t>
+  </si>
+  <si>
+    <t>good destination; happy fate; heaven; lit. going well</t>
+  </si>
+  <si>
     <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
-    <t>stability; constancy; long lasting; persisting; lit. standing</t>
-  </si>
-  <si>
-    <t>hut</t>
-  </si>
-  <si>
-    <t>cleanness; purity (of); purification (of); holiness</t>
-  </si>
-  <si>
-    <t>(vinaya) offence; transgression</t>
-  </si>
-  <si>
-    <t>attainment; meditation achievement</t>
-  </si>
-  <si>
-    <t>liking; preference; inclination; approval; lit. pleasure</t>
-  </si>
-  <si>
-    <t>good destination; happy fate; heaven; lit. going well</t>
-  </si>
-  <si>
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
   </si>
   <si>
@@ -3190,12 +3190,12 @@
     <t>on one side</t>
   </si>
   <si>
+    <t>everywhere; in every place</t>
+  </si>
+  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; in every place</t>
-  </si>
-  <si>
     <t>there; in that place</t>
   </si>
   <si>
@@ -3241,126 +3241,126 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>being; living being</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
+  </si>
+  <si>
+    <t>homelessness</t>
+  </si>
+  <si>
+    <t>household life; domestic life</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure</t>
+  </si>
+  <si>
+    <t>welfare; good; benefit; blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
+  </si>
+  <si>
+    <t>full development; maturity; completion; plenty; fullness</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; reason; lit. tied down to</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size</t>
+  </si>
+  <si>
+    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>side (of the body); flank</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; virtue; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>house; a dwelling place</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>fault; error; mistake; lit. to be avoided</t>
+  </si>
+  <si>
     <t>precept; instruction; training rule; lit. part of training</t>
   </si>
   <si>
     <t>danger; peril</t>
   </si>
   <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
     <t>object of the eye; shape; sight</t>
   </si>
   <si>
-    <t>being; living being</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
-  </si>
-  <si>
-    <t>homelessness</t>
-  </si>
-  <si>
-    <t>household life; domestic life</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure</t>
-  </si>
-  <si>
-    <t>welfare; good; benefit; blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
-  </si>
-  <si>
-    <t>full development; maturity; completion; plenty; fullness</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; reason; lit. tied down to</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>forest; wood</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size</t>
-  </si>
-  <si>
-    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>side (of the body); flank</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; virtue; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>house; a dwelling place</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>fault; error; mistake; lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
     <t>awareness; consciousness; fifth of the five aggregates; lit. knowing</t>
   </si>
   <si>
@@ -3445,34 +3445,34 @@
     <t>a bone</t>
   </si>
   <si>
+    <t>that much; that far; as long as; to that extent; until; at least</t>
+  </si>
+  <si>
+    <t>too; also; as well</t>
+  </si>
+  <si>
     <t>surely?; didn't?; wouldn't?</t>
   </si>
   <si>
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
+    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
+  </si>
+  <si>
+    <t>how?; in what way?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; up to; until; from … to …</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
     <t>(it is) suitable (to); proper (to); worthy (for); lit. enough (to)</t>
-  </si>
-  <si>
-    <t>that much; that far; as long as; to that extent; until; at least</t>
-  </si>
-  <si>
-    <t>too; also; as well</t>
-  </si>
-  <si>
-    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
-  </si>
-  <si>
-    <t>how?; in what way?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; up to; until; from … to …</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
   </si>
   <si>
     <t>that's enough (of)! stop (with)!</t>
@@ -6758,7 +6758,7 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C162" t="s">
         <v>754</v>
@@ -6843,7 +6843,7 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C167" t="s">
         <v>759</v>
@@ -8135,7 +8135,7 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C243" t="s">
         <v>834</v>
@@ -8169,7 +8169,7 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C245" t="s">
         <v>836</v>
@@ -9005,7 +9005,7 @@
         <v>584</v>
       </c>
       <c r="C294" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="D294" t="s">
         <v>1179</v>
@@ -9022,7 +9022,7 @@
         <v>584</v>
       </c>
       <c r="C295" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D295" t="s">
         <v>1179</v>
@@ -11045,7 +11045,7 @@
         <v>589</v>
       </c>
       <c r="C414" t="s">
-        <v>1003</v>
+        <v>598</v>
       </c>
       <c r="D414" t="s">
         <v>1197</v>
@@ -11062,7 +11062,7 @@
         <v>589</v>
       </c>
       <c r="C415" t="s">
-        <v>611</v>
+        <v>1003</v>
       </c>
       <c r="D415" t="s">
         <v>1197</v>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -37,441 +37,441 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
   </si>
   <si>
     <t>passāva</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
   </si>
   <si>
     <t>sakka 3</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna 1</t>
   </si>
   <si>
@@ -511,141 +511,141 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -679,30 +679,30 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -712,6 +712,9 @@
     <t>samāpajjati 2</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -742,9 +745,6 @@
     <t>chindati 1</t>
   </si>
   <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -802,18 +802,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -823,6 +823,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -841,9 +844,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -862,12 +862,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -904,6 +904,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -925,9 +928,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -988,6 +988,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -997,24 +1000,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -1096,27 +1096,30 @@
     <t>satthar 1</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
@@ -1129,33 +1132,30 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -1174,12 +1174,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -1231,6 +1231,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -1276,12 +1282,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -1324,33 +1324,33 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -1405,21 +1405,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -1429,33 +1429,33 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -1597,15 +1597,15 @@
     <t>saraṇa 2.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
@@ -1804,438 +1804,438 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
     <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
     <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
@@ -2275,141 +2275,141 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -2443,27 +2443,27 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -2473,6 +2473,9 @@
     <t>engages (in); practices; performs</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -2503,9 +2506,6 @@
     <t>cuts off; severs</t>
   </si>
   <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -2563,18 +2563,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -2584,6 +2584,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -2602,9 +2605,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -2623,12 +2623,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -2665,6 +2665,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -2686,9 +2689,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -2749,6 +2749,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -2758,24 +2761,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -2857,27 +2857,30 @@
     <t>master; teacher</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
@@ -2890,33 +2893,30 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -2935,12 +2935,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -2992,6 +2992,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -3034,12 +3040,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -3082,30 +3082,30 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -3160,21 +3160,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -3184,30 +3184,30 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -3349,13 +3349,13 @@
     <t>shelter; refuge; help; lit. going to</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
   </si>
   <si>
     <t>eating; taking food</t>
@@ -6441,7 +6441,7 @@
         <v>580</v>
       </c>
       <c r="C143" t="s">
-        <v>735</v>
+        <v>616</v>
       </c>
       <c r="D143" t="s">
         <v>1164</v>
@@ -6458,7 +6458,7 @@
         <v>580</v>
       </c>
       <c r="C144" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D144" t="s">
         <v>1164</v>
@@ -6475,7 +6475,7 @@
         <v>580</v>
       </c>
       <c r="C145" t="s">
-        <v>618</v>
+        <v>736</v>
       </c>
       <c r="D145" t="s">
         <v>1164</v>
@@ -6761,7 +6761,7 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C162" t="s">
         <v>753</v>
@@ -6897,7 +6897,7 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C170" t="s">
         <v>761</v>
@@ -11048,7 +11048,7 @@
         <v>589</v>
       </c>
       <c r="C414" t="s">
-        <v>598</v>
+        <v>1004</v>
       </c>
       <c r="D414" t="s">
         <v>1198</v>
@@ -11065,7 +11065,7 @@
         <v>589</v>
       </c>
       <c r="C415" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D415" t="s">
         <v>1198</v>
@@ -11082,7 +11082,7 @@
         <v>589</v>
       </c>
       <c r="C416" t="s">
-        <v>1005</v>
+        <v>597</v>
       </c>
       <c r="D416" t="s">
         <v>1198</v>
@@ -11473,7 +11473,7 @@
         <v>590</v>
       </c>
       <c r="C439" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D439" t="s">
         <v>590</v>
@@ -11490,7 +11490,7 @@
         <v>590</v>
       </c>
       <c r="C440" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D440" t="s">
         <v>590</v>
@@ -12068,7 +12068,7 @@
         <v>585</v>
       </c>
       <c r="C474" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D474" t="s">
         <v>585</v>
@@ -12085,7 +12085,7 @@
         <v>585</v>
       </c>
       <c r="C475" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D475" t="s">
         <v>585</v>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -34,252 +34,297 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -298,15 +343,9 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
     <t>ogha 1</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -319,15 +358,9 @@
     <t>uddesa 1</t>
   </si>
   <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
@@ -364,24 +397,15 @@
     <t>sahāya</t>
   </si>
   <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
     <t>paribbājaka</t>
   </si>
   <si>
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -391,36 +415,18 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>amanasikāra 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>udapāna</t>
   </si>
   <si>
@@ -448,9 +454,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -463,9 +466,6 @@
     <t>passāva</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -511,6 +511,9 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
@@ -526,72 +529,69 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
     <t>ārabhati 1.1</t>
   </si>
   <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>vattati 1</t>
   </si>
   <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -658,12 +658,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>ehi</t>
   </si>
   <si>
@@ -715,39 +715,45 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -757,15 +763,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -859,15 +859,15 @@
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -877,15 +877,15 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -1084,12 +1084,12 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -1129,15 +1129,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -1240,6 +1240,9 @@
     <t>paññā 1</t>
   </si>
   <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -1273,9 +1276,6 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -1309,12 +1309,12 @@
     <t>vipassanā</t>
   </si>
   <si>
+    <t>ovāda</t>
+  </si>
+  <si>
     <t>asammosa</t>
   </si>
   <si>
-    <t>ovāda</t>
-  </si>
-  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
@@ -1471,6 +1471,9 @@
     <t>pāripūrī</t>
   </si>
   <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
     <t>anusāsanī</t>
   </si>
   <si>
@@ -1480,9 +1483,6 @@
     <t>bārāṇasī 1</t>
   </si>
   <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
     <t>sāvatthī</t>
   </si>
   <si>
@@ -1492,183 +1492,186 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
     <t>bhūta 3</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
   </si>
   <si>
     <t>arañña</t>
   </si>
   <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>jhāna 2</t>
   </si>
   <si>
     <t>dassanāya 2</t>
   </si>
   <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
     <t>dukkaṭa 3</t>
   </si>
   <si>
@@ -1681,9 +1684,6 @@
     <t>pārājika 3</t>
   </si>
   <si>
-    <t>brahmacariya 1</t>
-  </si>
-  <si>
     <t>saṃyojana 1</t>
   </si>
   <si>
@@ -1708,30 +1708,30 @@
     <t>kallaṃ</t>
   </si>
   <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>api 1.2</t>
+  </si>
+  <si>
     <t>alaṃ 2</t>
   </si>
   <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
@@ -1750,12 +1750,12 @@
     <t>āyu 2</t>
   </si>
   <si>
+    <t>vatthu 2</t>
+  </si>
+  <si>
     <t>cakkhu 1</t>
   </si>
   <si>
-    <t>vatthu 2</t>
-  </si>
-  <si>
     <t>masc</t>
   </si>
   <si>
@@ -1801,252 +1801,297 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -2065,15 +2110,9 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
     <t>(of water) flood; deluge; torrent</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -2086,15 +2125,9 @@
     <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
   </si>
   <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
@@ -2131,24 +2164,15 @@
     <t>friend; companion; ally; fellow traveller; lit. going with</t>
   </si>
   <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -2158,36 +2182,18 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>non-attention; ignoring; lit. not making in mind</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>well; (comm) pond; pool; lit. water drinking</t>
   </si>
   <si>
@@ -2215,9 +2221,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -2227,9 +2230,6 @@
     <t>urine</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -2275,6 +2275,9 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
@@ -2290,72 +2293,69 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
   </si>
   <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -2422,12 +2422,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>come!</t>
   </si>
   <si>
@@ -2476,39 +2476,45 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -2518,15 +2524,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -2620,15 +2620,15 @@
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -2638,15 +2638,15 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -2845,12 +2845,12 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -2890,15 +2890,15 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -3067,12 +3067,12 @@
     <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>advice; instruction encouragement; exhortation</t>
-  </si>
-  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
@@ -3223,6 +3223,9 @@
     <t>fulfilment; completion; perfecting; maturity</t>
   </si>
   <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
     <t>advice; instruction; teaching</t>
   </si>
   <si>
@@ -3232,9 +3235,6 @@
     <t>name of a city; modern Varanasi</t>
   </si>
   <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
     <t>name of a city; capital of Kosala</t>
   </si>
   <si>
@@ -3244,183 +3244,186 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
   </si>
   <si>
     <t>forest; wood; wilds; wilderness; lit. remoteness</t>
   </si>
   <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>meditation; stage of meditation; lit. meditating</t>
   </si>
   <si>
     <t>in order to visit; for the purpose of seeing</t>
   </si>
   <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
     <t>class of vinaya offence; wrong-doing; lit. badly done</t>
   </si>
   <si>
@@ -3433,9 +3436,6 @@
     <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
-  </si>
-  <si>
     <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
   </si>
   <si>
@@ -3460,30 +3460,30 @@
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>even; even then</t>
+  </si>
+  <si>
     <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
@@ -3502,10 +3502,10 @@
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>site; location; base; grounds; lit. ground</t>
+  </si>
+  <si>
     <t>eye</t>
-  </si>
-  <si>
-    <t>site; location; base; grounds; lit. ground</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -6441,7 +6441,7 @@
         <v>580</v>
       </c>
       <c r="C143" t="s">
-        <v>616</v>
+        <v>735</v>
       </c>
       <c r="D143" t="s">
         <v>1164</v>
@@ -6458,7 +6458,7 @@
         <v>580</v>
       </c>
       <c r="C144" t="s">
-        <v>735</v>
+        <v>618</v>
       </c>
       <c r="D144" t="s">
         <v>1164</v>
@@ -8138,7 +8138,7 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C243" t="s">
         <v>833</v>
@@ -8172,7 +8172,7 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C245" t="s">
         <v>835</v>
@@ -10895,7 +10895,7 @@
         <v>589</v>
       </c>
       <c r="C405" t="s">
-        <v>995</v>
+        <v>678</v>
       </c>
       <c r="D405" t="s">
         <v>1198</v>
@@ -10912,7 +10912,7 @@
         <v>589</v>
       </c>
       <c r="C406" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D406" t="s">
         <v>1198</v>
@@ -10929,7 +10929,7 @@
         <v>589</v>
       </c>
       <c r="C407" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D407" t="s">
         <v>1198</v>
@@ -10946,7 +10946,7 @@
         <v>589</v>
       </c>
       <c r="C408" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D408" t="s">
         <v>1198</v>
@@ -10963,7 +10963,7 @@
         <v>589</v>
       </c>
       <c r="C409" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D409" t="s">
         <v>1198</v>
@@ -10980,7 +10980,7 @@
         <v>589</v>
       </c>
       <c r="C410" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D410" t="s">
         <v>1198</v>
@@ -10997,7 +10997,7 @@
         <v>589</v>
       </c>
       <c r="C411" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D411" t="s">
         <v>1198</v>
@@ -11014,7 +11014,7 @@
         <v>589</v>
       </c>
       <c r="C412" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D412" t="s">
         <v>1198</v>
@@ -11031,7 +11031,7 @@
         <v>589</v>
       </c>
       <c r="C413" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D413" t="s">
         <v>1198</v>
@@ -11048,7 +11048,7 @@
         <v>589</v>
       </c>
       <c r="C414" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D414" t="s">
         <v>1198</v>
@@ -11065,7 +11065,7 @@
         <v>589</v>
       </c>
       <c r="C415" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D415" t="s">
         <v>1198</v>
@@ -11082,7 +11082,7 @@
         <v>589</v>
       </c>
       <c r="C416" t="s">
-        <v>597</v>
+        <v>1005</v>
       </c>
       <c r="D416" t="s">
         <v>1198</v>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -2533,7 +2533,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -784,30 +784,30 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>ajjhabhāsi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>ajjhabhāsi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -1060,12 +1060,12 @@
     <t>medhāvī</t>
   </si>
   <si>
+    <t>brahmacārī 2</t>
+  </si>
+  <si>
     <t>pakkhī</t>
   </si>
   <si>
-    <t>brahmacārī 2</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -2029,7 +2029,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -2296,7 +2296,7 @@
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>go!; begone!</t>
@@ -2545,30 +2545,30 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>addressed; spoke (to)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>addressed; spoke (to)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -2821,10 +2821,10 @@
     <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
   </si>
   <si>
+    <t>celibate man; who abstains from sexual intercourse</t>
+  </si>
+  <si>
     <t>bird; lit. with wings</t>
-  </si>
-  <si>
-    <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -1528,84 +1528,84 @@
     <t>vepulla 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -3280,82 +3280,82 @@
     <t>expansion; full development; maturity</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -829,27 +829,27 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2590,27 +2590,27 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -2710,7 +2710,7 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>do not; may one not; don’t let</t>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -3136,7 +3136,7 @@
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -3451,7 +3451,7 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>that much; that far; as long as; to that extent; until; at least</t>
@@ -3472,7 +3472,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class9.xlsx
+++ b/pali-class/vocab/vocab-class9.xlsx
@@ -100,345 +100,345 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -556,6 +556,9 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -592,15 +595,15 @@
     <t>gacchati 1</t>
   </si>
   <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
     <t>padahati 1</t>
   </si>
   <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
     <t>pavisati</t>
   </si>
   <si>
@@ -634,9 +637,6 @@
     <t>tiṭṭhati 3</t>
   </si>
   <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -730,6 +730,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -742,9 +745,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
@@ -910,24 +910,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1084,15 +1084,15 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>bhāsitar</t>
   </si>
   <si>
@@ -1357,6 +1357,12 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -1369,15 +1375,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -1561,6 +1561,9 @@
     <t>sarīra 1</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>bhesajja</t>
   </si>
   <si>
@@ -1684,9 +1687,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -1867,342 +1867,342 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -2320,6 +2320,9 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -2356,15 +2359,15 @@
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
     <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
   </si>
   <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
     <t>enters; goes (into)</t>
   </si>
   <si>
@@ -2398,9 +2401,6 @@
     <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -2491,6 +2491,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -2503,9 +2506,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
@@ -2671,24 +2671,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -2845,15 +2845,15 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker; who talks (about)</t>
   </si>
   <si>
@@ -3112,6 +3112,12 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -3124,15 +3130,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -3313,6 +3313,9 @@
     <t>body</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>medicine; remedy; tonic; drug</t>
   </si>
   <si>
@@ -3434,9 +3437,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -5280,7 +5280,7 @@
         <v>580</v>
       </c>
       <c r="C74" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D74" t="s">
         <v>1164</v>
@@ -5297,7 +5297,7 @@
         <v>580</v>
       </c>
       <c r="C75" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D75" t="s">
         <v>1164</v>
@@ -5314,7 +5314,7 @@
         <v>580</v>
       </c>
       <c r="C76" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="D76" t="s">
         <v>1164</v>
@@ -11128,7 +11128,7 @@
         <v>584</v>
       </c>
       <c r="C418" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D418" t="s">
         <v>1201</v>
